--- a/Trunk/Doc/Product BackLog.xlsx
+++ b/Trunk/Doc/Product BackLog.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Marcus Almeida\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="47">
   <si>
     <t>#</t>
   </si>
@@ -56,17 +51,122 @@
     <t>Como ciclista quero qualificar a rota que participei</t>
   </si>
   <si>
-    <t>Como ciclista quero visualizar meu tempo atual no evento</t>
-  </si>
-  <si>
     <t>Plataform</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Web</t>
+  </si>
+  <si>
+    <t>No momento de criação da rota o sistema deverá sugerir pontos de referência, quando houver</t>
+  </si>
+  <si>
+    <t>Como usuário gostaria de poder criar rotas</t>
+  </si>
+  <si>
+    <t>Como usuário gostaria de poder alterar uma rota criada por mim</t>
+  </si>
+  <si>
+    <t>Como ciclista gostaria de poder enviar imagens relativas a rota</t>
+  </si>
+  <si>
+    <t>Como usuário gostaria de poder excluir imagens relativas a rota</t>
+  </si>
+  <si>
+    <t>Como ciclista gostaria de poder adicionar pontos de referência à rota</t>
+  </si>
+  <si>
+    <t>Como ciclista gostaria de poder excluir pontos de referência da rota</t>
+  </si>
+  <si>
+    <t>Como usuário gostaria de poder excluir pontos de referência da rota</t>
+  </si>
+  <si>
+    <t>Como ciclista gostaria de poder realizar um caminho aleatório e cadastrar esse percurso como uma nova rota</t>
+  </si>
+  <si>
+    <t>Como ciclista gostaria de informar meu status após um evento</t>
+  </si>
+  <si>
+    <t>Como ciclista quero poder qualificar uma rota que participei</t>
+  </si>
+  <si>
+    <t>Como usuário quero poder criar um evento</t>
+  </si>
+  <si>
+    <t>Como usuário gostaria de poder associar rotas a eventos</t>
+  </si>
+  <si>
+    <t>Como usuário quero poder desassociar rotas a eventos</t>
+  </si>
+  <si>
+    <t>Como usuário quero poder marcar um evento como público ou privado</t>
+  </si>
+  <si>
+    <t>Como usuário quero poder conviadar outros usuários para os eventos</t>
+  </si>
+  <si>
+    <t>Como usuário quero poder responder ao convite de um evento como: "Vou", "Não vou" ou "Talvez"</t>
+  </si>
+  <si>
+    <t>Como usuário gostaria de poder criar o meu perfil</t>
+  </si>
+  <si>
+    <t>Como usuário gostaria de poder adicionar uma foto ao meu perfil</t>
+  </si>
+  <si>
+    <t>Como usuário gostaria de poder convidar outras pessoas, por e-mail, para participarem da rede</t>
+  </si>
+  <si>
+    <t>Como usuário gostaria de poder adicionar um amigo a minha rede</t>
+  </si>
+  <si>
+    <t>Como usuário gostaria de poder recusar um convite de amizade</t>
+  </si>
+  <si>
+    <t>Como usuário gostaria de poder aceitar convites de amizade</t>
+  </si>
+  <si>
+    <t>Como usuário gostaria de poder aceitar um convite para participar de um evento</t>
+  </si>
+  <si>
+    <t>Como usuário gostaria de poder registrar meu status após um evento</t>
+  </si>
+  <si>
+    <t>Como usuário gostaria de poder qualificar uma rota que participei</t>
+  </si>
+  <si>
+    <t>Como usuário gostaria de poder qualificar uma rota que participei - Quanto ao tipo de pista</t>
+  </si>
+  <si>
+    <t>Como usuário gostaria de poder qualificar uma rota que participei - Quanto ao nível de dificuldade</t>
+  </si>
+  <si>
+    <t>Como usuário gostaria de poder qualificar uma rota que participei - Quanto a duração média da rota</t>
+  </si>
+  <si>
+    <t>Como usuário gostaria de poder visualizar o tempo atual do evento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como usuário gostaria de poder visualizar as estatísticas dos ciclistas participando de um evento </t>
+  </si>
+  <si>
+    <t>Como usuário quero poder excluir um evento</t>
+  </si>
+  <si>
+    <t>Como usuário gostaria de poder cadastrar a bike que eu uso para realizar os eventos</t>
+  </si>
+  <si>
+    <t>Como usuário gostaria de poder mudar a foto do meu perfil</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +178,14 @@
       <b/>
       <sz val="14"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -146,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -157,11 +265,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -175,15 +289,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B3:G8" totalsRowShown="0">
-  <autoFilter ref="B3:G8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B3:G49" totalsRowShown="0">
+  <autoFilter ref="B3:G49"/>
+  <sortState ref="B4:G49">
+    <sortCondition descending="1" ref="G3:G49"/>
+  </sortState>
   <tableColumns count="6">
     <tableColumn id="1" name="#"/>
     <tableColumn id="2" name="User History"/>
     <tableColumn id="3" name="Plataform"/>
     <tableColumn id="4" name="Story Point"/>
     <tableColumn id="5" name="Business Value"/>
-    <tableColumn id="6" name="ROI"/>
+    <tableColumn id="6" name="ROI" dataDxfId="0">
+      <calculatedColumnFormula>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -232,7 +351,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -267,7 +386,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -444,7 +563,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -452,25 +571,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G8"/>
+  <dimension ref="B1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.85546875" customWidth="1"/>
     <col min="2" max="2" width="4.140625" customWidth="1"/>
-    <col min="3" max="3" width="54.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="101.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" customWidth="1"/>
     <col min="7" max="7" width="6.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
@@ -480,7 +599,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -488,7 +607,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
@@ -500,59 +619,950 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
       </c>
       <c r="E4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>4</v>
+      </c>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>26</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>8</v>
+      </c>
+      <c r="G12">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>8</v>
+      </c>
+      <c r="G13">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>8</v>
+      </c>
+      <c r="G14">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22">
+        <v>8</v>
+      </c>
+      <c r="F22">
+        <v>13</v>
+      </c>
+      <c r="G22">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.625</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>16</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23">
+        <v>8</v>
+      </c>
+      <c r="F23">
+        <v>13</v>
+      </c>
+      <c r="G23">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.625</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>17</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <v>8</v>
+      </c>
+      <c r="G24">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>25</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25">
+        <v>8</v>
+      </c>
+      <c r="G25">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>36</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="F26">
+        <v>8</v>
+      </c>
+      <c r="G26">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>37</v>
+      </c>
+      <c r="C27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="F27">
+        <v>8</v>
+      </c>
+      <c r="G27">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>38</v>
+      </c>
+      <c r="C28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
+      <c r="F28">
+        <v>8</v>
+      </c>
+      <c r="G28">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>39</v>
+      </c>
+      <c r="C29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
+      </c>
+      <c r="F29">
+        <v>8</v>
+      </c>
+      <c r="G29">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30">
+        <v>5</v>
+      </c>
+      <c r="F30">
+        <v>8</v>
+      </c>
+      <c r="G30">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>41</v>
+      </c>
+      <c r="C31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
+      </c>
+      <c r="F31">
+        <v>8</v>
+      </c>
+      <c r="G31">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>42</v>
+      </c>
+      <c r="C32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32">
+        <v>5</v>
+      </c>
+      <c r="F32">
+        <v>8</v>
+      </c>
+      <c r="G32">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>43</v>
+      </c>
+      <c r="C33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33">
+        <v>5</v>
+      </c>
+      <c r="F33">
+        <v>8</v>
+      </c>
+      <c r="G33">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34">
         <v>10</v>
       </c>
-      <c r="E8">
-        <v>3</v>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+      <c r="G34">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>28</v>
+      </c>
+      <c r="C35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+      <c r="G35">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36">
+        <v>13</v>
+      </c>
+      <c r="F36">
+        <v>13</v>
+      </c>
+      <c r="G36">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37">
+        <v>8</v>
+      </c>
+      <c r="F37">
+        <v>8</v>
+      </c>
+      <c r="G37">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>13</v>
+      </c>
+      <c r="C38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38">
+        <v>5</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>14</v>
+      </c>
+      <c r="C39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39">
+        <v>5</v>
+      </c>
+      <c r="F39">
+        <v>5</v>
+      </c>
+      <c r="G39">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>18</v>
+      </c>
+      <c r="C40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+      <c r="G40">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>20</v>
+      </c>
+      <c r="C41" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="F41">
+        <v>3</v>
+      </c>
+      <c r="G41">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>30</v>
+      </c>
+      <c r="C42" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="F42">
+        <v>3</v>
+      </c>
+      <c r="G42">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>32</v>
+      </c>
+      <c r="C43" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+      <c r="G43">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>44</v>
+      </c>
+      <c r="C44" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44">
+        <v>5</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+      <c r="G44">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>45</v>
+      </c>
+      <c r="C45" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45">
+        <v>5</v>
+      </c>
+      <c r="F45">
+        <v>5</v>
+      </c>
+      <c r="G45">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>46</v>
+      </c>
+      <c r="C46" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46">
+        <v>8</v>
+      </c>
+      <c r="F46">
+        <v>8</v>
+      </c>
+      <c r="G46">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>31</v>
+      </c>
+      <c r="C47" t="s">
+        <v>34</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>15</v>
+      </c>
+      <c r="C48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48">
+        <v>21</v>
+      </c>
+      <c r="F48">
+        <v>13</v>
+      </c>
+      <c r="G48">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>0.61904761904761907</v>
       </c>
     </row>
   </sheetData>
@@ -560,7 +1570,7 @@
     <mergeCell ref="B2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/Trunk/Doc/Product BackLog.xlsx
+++ b/Trunk/Doc/Product BackLog.xlsx
@@ -60,9 +60,6 @@
     <t>Web</t>
   </si>
   <si>
-    <t>No momento de criação da rota o sistema deverá sugerir pontos de referência, quando houver</t>
-  </si>
-  <si>
     <t>Como usuário gostaria de poder criar rotas</t>
   </si>
   <si>
@@ -160,6 +157,9 @@
   </si>
   <si>
     <t>Como usuário gostaria de poder mudar a foto do meu perfil</t>
+  </si>
+  <si>
+    <t>No momento de criação da rota o usuário deverá apontar pontos de referência, quando houver</t>
   </si>
 </sst>
 </file>
@@ -256,6 +256,8 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -265,8 +267,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -290,7 +290,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B3:G49" totalsRowShown="0">
-  <autoFilter ref="B3:G49"/>
+  <autoFilter ref="B3:G49">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Mobile"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="B4:G49">
     <sortCondition descending="1" ref="G3:G49"/>
   </sortState>
@@ -563,7 +569,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -571,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I48"/>
+  <dimension ref="B1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,14 +596,14 @@
   <sheetData>
     <row r="1" spans="2:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -640,12 +646,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -661,7 +667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>5</v>
       </c>
@@ -681,14 +687,14 @@
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
         <v>4</v>
       </c>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -709,7 +715,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -730,7 +736,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -746,12 +752,12 @@
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -767,12 +773,12 @@
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -788,12 +794,12 @@
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>26</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>31</v>
+      <c r="C12" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
@@ -814,7 +820,7 @@
         <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
         <v>11</v>
@@ -830,12 +836,12 @@
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
@@ -872,12 +878,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
@@ -893,12 +899,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
@@ -914,7 +920,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>1</v>
       </c>
@@ -940,7 +946,7 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
         <v>11</v>
@@ -956,12 +962,12 @@
         <v>1.6666666666666667</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" t="s">
         <v>12</v>
@@ -977,12 +983,12 @@
         <v>1.6666666666666667</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
@@ -1003,7 +1009,7 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22" t="s">
         <v>11</v>
@@ -1023,8 +1029,8 @@
       <c r="B23">
         <v>16</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>21</v>
+      <c r="C23" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="D23" t="s">
         <v>11</v>
@@ -1040,12 +1046,12 @@
         <v>1.625</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
@@ -1061,12 +1067,12 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>25</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>30</v>
+      <c r="C25" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="D25" t="s">
         <v>12</v>
@@ -1082,12 +1088,12 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D26" t="s">
         <v>12</v>
@@ -1108,7 +1114,7 @@
         <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D27" t="s">
         <v>11</v>
@@ -1129,7 +1135,7 @@
         <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D28" t="s">
         <v>11</v>
@@ -1145,12 +1151,12 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D29" t="s">
         <v>12</v>
@@ -1171,7 +1177,7 @@
         <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D30" t="s">
         <v>11</v>
@@ -1187,12 +1193,12 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
@@ -1213,7 +1219,7 @@
         <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D32" t="s">
         <v>11</v>
@@ -1229,12 +1235,12 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D33" t="s">
         <v>12</v>
@@ -1250,12 +1256,12 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
@@ -1271,12 +1277,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>28</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D35" t="s">
         <v>12</v>
@@ -1292,12 +1298,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D36" t="s">
         <v>12</v>
@@ -1313,12 +1319,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s">
         <v>12</v>
@@ -1339,7 +1345,7 @@
         <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D38" t="s">
         <v>11</v>
@@ -1355,12 +1361,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>14</v>
       </c>
       <c r="C39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
@@ -1376,12 +1382,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>18</v>
       </c>
       <c r="C40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D40" t="s">
         <v>12</v>
@@ -1397,12 +1403,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>20</v>
       </c>
       <c r="C41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
@@ -1418,12 +1424,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>30</v>
       </c>
       <c r="C42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
@@ -1439,12 +1445,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>32</v>
       </c>
       <c r="C43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D43" t="s">
         <v>12</v>
@@ -1465,7 +1471,7 @@
         <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D44" t="s">
         <v>11</v>
@@ -1481,12 +1487,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D45" t="s">
         <v>12</v>
@@ -1507,7 +1513,7 @@
         <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D46" t="s">
         <v>11</v>
@@ -1523,12 +1529,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>31</v>
       </c>
       <c r="C47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D47" t="s">
         <v>12</v>
@@ -1549,7 +1555,7 @@
         <v>15</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="D48" t="s">
         <v>11</v>
@@ -1565,6 +1571,7 @@
         <v>0.61904761904761907</v>
       </c>
     </row>
+    <row r="49" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:G2"/>

--- a/Trunk/Doc/Product BackLog.xlsx
+++ b/Trunk/Doc/Product BackLog.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="47">
   <si>
     <t>#</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Product BackLog</t>
   </si>
   <si>
-    <t>Como Usuario gostaria de adicionar uma foto ao meu perfil</t>
-  </si>
-  <si>
     <t>Como ciclista gostaria enviar uma imagem a rota</t>
   </si>
   <si>
@@ -102,9 +99,6 @@
     <t>Como usuário quero poder marcar um evento como público ou privado</t>
   </si>
   <si>
-    <t>Como usuário quero poder conviadar outros usuários para os eventos</t>
-  </si>
-  <si>
     <t>Como usuário quero poder responder ao convite de um evento como: "Vou", "Não vou" ou "Talvez"</t>
   </si>
   <si>
@@ -160,13 +154,19 @@
   </si>
   <si>
     <t>No momento de criação da rota o usuário deverá apontar pontos de referência, quando houver</t>
+  </si>
+  <si>
+    <t>Como usuário quero poder convidar outros usuários para os eventos</t>
+  </si>
+  <si>
+    <t>Sprint</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,16 +182,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,8 +196,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -237,34 +235,19 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="0"/>
-      </right>
-      <top style="medium">
-        <color theme="0"/>
-      </top>
-      <bottom style="medium">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -289,18 +272,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B3:G49" totalsRowShown="0">
-  <autoFilter ref="B3:G49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B3:H47" totalsRowShown="0">
+  <autoFilter ref="B3:H47">
     <filterColumn colId="2">
       <filters>
-        <filter val="Mobile"/>
+        <filter val="Web"/>
       </filters>
     </filterColumn>
+    <filterColumn colId="6"/>
   </autoFilter>
-  <sortState ref="B4:G49">
+  <sortState ref="B4:G48">
     <sortCondition descending="1" ref="G3:G49"/>
   </sortState>
-  <tableColumns count="6">
+  <tableColumns count="7">
     <tableColumn id="1" name="#"/>
     <tableColumn id="2" name="User History"/>
     <tableColumn id="3" name="Plataform"/>
@@ -309,6 +293,7 @@
     <tableColumn id="6" name="ROI" dataDxfId="0">
       <calculatedColumnFormula>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="8" name="Sprint"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -569,21 +554,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E24" activeCellId="1" sqref="E5:E20 E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="1.85546875" customWidth="1"/>
     <col min="2" max="2" width="4.140625" customWidth="1"/>
@@ -594,18 +579,19 @@
     <col min="7" max="7" width="6.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+    <row r="1" spans="2:8" ht="6.75" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:8" ht="19.5" thickBot="1">
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
       <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="2:8">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -613,7 +599,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
@@ -624,16 +610,19 @@
       <c r="G3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" hidden="1">
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -646,15 +635,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B5">
+    <row r="5" spans="2:8">
+      <c r="B5" s="3">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>21</v>
+      <c r="C5" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -666,16 +655,19 @@
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="3">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -687,17 +679,19 @@
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
         <v>4</v>
       </c>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B7">
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="3">
         <v>33</v>
       </c>
-      <c r="C7" t="s">
-        <v>44</v>
+      <c r="C7" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -709,16 +703,19 @@
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" hidden="1">
       <c r="B8">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -731,15 +728,15 @@
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" hidden="1">
       <c r="B9">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -752,15 +749,15 @@
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="10" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B10">
+    <row r="10" spans="2:8">
+      <c r="B10" s="3">
         <v>19</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
+      <c r="C10" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -772,16 +769,19 @@
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
         <v>2.6666666666666665</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B11">
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="3">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
-        <v>27</v>
+      <c r="C11" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -793,16 +793,19 @@
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
         <v>2.6666666666666665</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B12">
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="3">
         <v>26</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -814,16 +817,19 @@
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
         <v>2.6666666666666665</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" hidden="1">
       <c r="B13">
         <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -836,15 +842,15 @@
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="14" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B14">
+    <row r="14" spans="2:8">
+      <c r="B14" s="3">
         <v>35</v>
       </c>
-      <c r="C14" t="s">
-        <v>36</v>
+      <c r="C14" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -856,16 +862,19 @@
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
         <v>2.6666666666666665</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" hidden="1">
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -878,15 +887,15 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="16" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B16">
+    <row r="16" spans="2:8">
+      <c r="B16" s="3">
         <v>21</v>
       </c>
-      <c r="C16" t="s">
-        <v>26</v>
+      <c r="C16" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -898,16 +907,19 @@
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
         <v>2.5</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B17">
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="3">
         <v>27</v>
       </c>
-      <c r="C17" t="s">
-        <v>45</v>
+      <c r="C17" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -919,16 +931,19 @@
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
         <v>2.5</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" hidden="1">
       <c r="B18">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -941,12 +956,12 @@
         <v>1.6666666666666667</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>28</v>
+    <row r="19" spans="2:8">
+      <c r="B19" s="3">
+        <v>24</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>11</v>
@@ -961,16 +976,19 @@
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
         <v>1.6666666666666667</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>28</v>
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="3">
+        <v>29</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -982,37 +1000,40 @@
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
         <v>1.6666666666666667</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" hidden="1">
       <c r="B21">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F21">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G21">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.6666666666666667</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+        <v>1.625</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" hidden="1">
       <c r="B22">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22">
         <v>8</v>
@@ -1025,556 +1046,517 @@
         <v>1.625</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8">
       <c r="B23">
-        <v>16</v>
-      </c>
-      <c r="C23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23">
+        <v>8</v>
+      </c>
+      <c r="G23">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="3">
+        <v>25</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <v>8</v>
+      </c>
+      <c r="G24">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.6</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" hidden="1">
+      <c r="B25">
+        <v>37</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25">
+        <v>8</v>
+      </c>
+      <c r="G25">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" hidden="1">
+      <c r="B26">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="F26">
+        <v>8</v>
+      </c>
+      <c r="G26">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27">
+        <v>39</v>
+      </c>
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="F27">
+        <v>8</v>
+      </c>
+      <c r="G27">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" hidden="1">
+      <c r="B28">
+        <v>40</v>
+      </c>
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
+      <c r="F28">
+        <v>8</v>
+      </c>
+      <c r="G28">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29">
+        <v>41</v>
+      </c>
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
+      </c>
+      <c r="F29">
+        <v>8</v>
+      </c>
+      <c r="G29">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" hidden="1">
+      <c r="B30">
+        <v>42</v>
+      </c>
+      <c r="C30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30">
+        <v>5</v>
+      </c>
+      <c r="F30">
+        <v>8</v>
+      </c>
+      <c r="G30">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
+      </c>
+      <c r="F31">
+        <v>8</v>
+      </c>
+      <c r="G31">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33">
+        <v>28</v>
+      </c>
+      <c r="C33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34">
+        <v>13</v>
+      </c>
+      <c r="F34">
+        <v>13</v>
+      </c>
+      <c r="G34">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35">
+        <v>8</v>
+      </c>
+      <c r="F35">
+        <v>8</v>
+      </c>
+      <c r="G35">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" hidden="1">
+      <c r="B36">
+        <v>13</v>
+      </c>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36">
+        <v>5</v>
+      </c>
+      <c r="F36">
+        <v>5</v>
+      </c>
+      <c r="G36">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37">
+        <v>14</v>
+      </c>
+      <c r="C37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37">
+        <v>5</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+      <c r="G37">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38">
+        <v>18</v>
+      </c>
+      <c r="C38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="G38">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39">
         <v>20</v>
       </c>
-      <c r="D23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23">
-        <v>8</v>
-      </c>
-      <c r="F23">
+      <c r="C39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40">
+        <v>30</v>
+      </c>
+      <c r="C40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+      <c r="G40">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41">
+        <v>32</v>
+      </c>
+      <c r="C41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="F41">
+        <v>3</v>
+      </c>
+      <c r="G41">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" hidden="1">
+      <c r="B42">
+        <v>44</v>
+      </c>
+      <c r="C42" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42">
+        <v>5</v>
+      </c>
+      <c r="F42">
+        <v>5</v>
+      </c>
+      <c r="G42">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43">
+        <v>45</v>
+      </c>
+      <c r="C43" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43">
+        <v>5</v>
+      </c>
+      <c r="F43">
+        <v>5</v>
+      </c>
+      <c r="G43">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" hidden="1">
+      <c r="B44">
+        <v>46</v>
+      </c>
+      <c r="C44" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44">
+        <v>8</v>
+      </c>
+      <c r="F44">
+        <v>8</v>
+      </c>
+      <c r="G44">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45">
+        <v>31</v>
+      </c>
+      <c r="C45" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" hidden="1">
+      <c r="B46">
+        <v>15</v>
+      </c>
+      <c r="C46" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46">
+        <v>21</v>
+      </c>
+      <c r="F46">
         <v>13</v>
       </c>
-      <c r="G23">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.625</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>17</v>
-      </c>
-      <c r="C24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24">
-        <v>5</v>
-      </c>
-      <c r="F24">
-        <v>8</v>
-      </c>
-      <c r="G24">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>25</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25">
-        <v>5</v>
-      </c>
-      <c r="F25">
-        <v>8</v>
-      </c>
-      <c r="G25">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>36</v>
-      </c>
-      <c r="C26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26">
-        <v>5</v>
-      </c>
-      <c r="F26">
-        <v>8</v>
-      </c>
-      <c r="G26">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>37</v>
-      </c>
-      <c r="C27" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27">
-        <v>5</v>
-      </c>
-      <c r="F27">
-        <v>8</v>
-      </c>
-      <c r="G27">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>38</v>
-      </c>
-      <c r="C28" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28">
-        <v>5</v>
-      </c>
-      <c r="F28">
-        <v>8</v>
-      </c>
-      <c r="G28">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <v>39</v>
-      </c>
-      <c r="C29" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29">
-        <v>5</v>
-      </c>
-      <c r="F29">
-        <v>8</v>
-      </c>
-      <c r="G29">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30">
-        <v>40</v>
-      </c>
-      <c r="C30" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30">
-        <v>5</v>
-      </c>
-      <c r="F30">
-        <v>8</v>
-      </c>
-      <c r="G30">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <v>41</v>
-      </c>
-      <c r="C31" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31">
-        <v>5</v>
-      </c>
-      <c r="F31">
-        <v>8</v>
-      </c>
-      <c r="G31">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <v>42</v>
-      </c>
-      <c r="C32" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32">
-        <v>5</v>
-      </c>
-      <c r="F32">
-        <v>8</v>
-      </c>
-      <c r="G32">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <v>43</v>
-      </c>
-      <c r="C33" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33">
-        <v>5</v>
-      </c>
-      <c r="F33">
-        <v>8</v>
-      </c>
-      <c r="G33">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <v>10</v>
-      </c>
-      <c r="C34" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34">
-        <v>3</v>
-      </c>
-      <c r="G34">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <v>28</v>
-      </c>
-      <c r="C35" t="s">
-        <v>31</v>
-      </c>
-      <c r="D35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35">
-        <v>3</v>
-      </c>
-      <c r="G35">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <v>7</v>
-      </c>
-      <c r="C36" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36">
-        <v>13</v>
-      </c>
-      <c r="F36">
-        <v>13</v>
-      </c>
-      <c r="G36">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B37">
-        <v>8</v>
-      </c>
-      <c r="C37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37">
-        <v>8</v>
-      </c>
-      <c r="F37">
-        <v>8</v>
-      </c>
-      <c r="G37">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38">
-        <v>13</v>
-      </c>
-      <c r="C38" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38">
-        <v>5</v>
-      </c>
-      <c r="F38">
-        <v>5</v>
-      </c>
-      <c r="G38">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B39">
-        <v>14</v>
-      </c>
-      <c r="C39" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39">
-        <v>5</v>
-      </c>
-      <c r="F39">
-        <v>5</v>
-      </c>
-      <c r="G39">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B40">
-        <v>18</v>
-      </c>
-      <c r="C40" t="s">
-        <v>43</v>
-      </c>
-      <c r="D40" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40">
-        <v>3</v>
-      </c>
-      <c r="F40">
-        <v>3</v>
-      </c>
-      <c r="G40">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B41">
-        <v>20</v>
-      </c>
-      <c r="C41" t="s">
-        <v>25</v>
-      </c>
-      <c r="D41" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41">
-        <v>3</v>
-      </c>
-      <c r="F41">
-        <v>3</v>
-      </c>
-      <c r="G41">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B42">
-        <v>30</v>
-      </c>
-      <c r="C42" t="s">
-        <v>34</v>
-      </c>
-      <c r="D42" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42">
-        <v>3</v>
-      </c>
-      <c r="F42">
-        <v>3</v>
-      </c>
-      <c r="G42">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B43">
-        <v>32</v>
-      </c>
-      <c r="C43" t="s">
-        <v>35</v>
-      </c>
-      <c r="D43" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43">
-        <v>3</v>
-      </c>
-      <c r="F43">
-        <v>3</v>
-      </c>
-      <c r="G43">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44">
-        <v>44</v>
-      </c>
-      <c r="C44" t="s">
-        <v>41</v>
-      </c>
-      <c r="D44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E44">
-        <v>5</v>
-      </c>
-      <c r="F44">
-        <v>5</v>
-      </c>
-      <c r="G44">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B45">
-        <v>45</v>
-      </c>
-      <c r="C45" t="s">
-        <v>41</v>
-      </c>
-      <c r="D45" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45">
-        <v>5</v>
-      </c>
-      <c r="F45">
-        <v>5</v>
-      </c>
-      <c r="G45">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46">
-        <v>46</v>
-      </c>
-      <c r="C46" t="s">
-        <v>42</v>
-      </c>
-      <c r="D46" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46">
-        <v>8</v>
-      </c>
-      <c r="F46">
-        <v>8</v>
-      </c>
       <c r="G46">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B47">
-        <v>31</v>
-      </c>
-      <c r="C47" t="s">
-        <v>33</v>
-      </c>
-      <c r="D47" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47">
-        <v>3</v>
-      </c>
-      <c r="F47">
-        <v>2</v>
-      </c>
-      <c r="G47">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48">
-        <v>15</v>
-      </c>
-      <c r="C48" t="s">
-        <v>46</v>
-      </c>
-      <c r="D48" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48">
-        <v>21</v>
-      </c>
-      <c r="F48">
-        <v>13</v>
-      </c>
-      <c r="G48">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
         <v>0.61904761904761907</v>
       </c>
     </row>
-    <row r="49" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="2:7" hidden="1"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>

--- a/Trunk/Doc/Product BackLog.xlsx
+++ b/Trunk/Doc/Product BackLog.xlsx
@@ -1,16 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="23812"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="-440" windowWidth="25600" windowHeight="16000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="52">
   <si>
     <t>#</t>
   </si>
@@ -160,13 +163,28 @@
   </si>
   <si>
     <t>Sprint</t>
+  </si>
+  <si>
+    <t>Porcentagem</t>
+  </si>
+  <si>
+    <t>Obs.</t>
+  </si>
+  <si>
+    <t>Falta interface</t>
+  </si>
+  <si>
+    <t>Mudar chamada do webservice</t>
+  </si>
+  <si>
+    <t>Falta validação e chamada do webservice</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,8 +200,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,8 +236,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -216,42 +256,52 @@
         <color theme="0"/>
       </left>
       <right/>
-      <top style="medium">
-        <color theme="0"/>
-      </top>
-      <bottom style="medium">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color theme="0"/>
-      </top>
-      <bottom style="medium">
-        <color theme="0"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="13">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -272,19 +322,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B3:H47" totalsRowShown="0">
-  <autoFilter ref="B3:H47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B3:J47" totalsRowShown="0">
+  <autoFilter ref="B3:J47">
     <filterColumn colId="2">
       <filters>
         <filter val="Web"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="6"/>
   </autoFilter>
   <sortState ref="B4:G48">
     <sortCondition descending="1" ref="G3:G49"/>
   </sortState>
-  <tableColumns count="7">
+  <tableColumns count="9">
     <tableColumn id="1" name="#"/>
     <tableColumn id="2" name="User History"/>
     <tableColumn id="3" name="Plataform"/>
@@ -294,6 +343,8 @@
       <calculatedColumnFormula>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Sprint"/>
+    <tableColumn id="7" name="Porcentagem"/>
+    <tableColumn id="9" name="Obs."/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -554,44 +605,48 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
+  <dimension ref="B1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" activeCellId="1" sqref="E5:E20 E24"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" customWidth="1"/>
-    <col min="3" max="3" width="101.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
-    <col min="7" max="7" width="6.28515625" customWidth="1"/>
+    <col min="1" max="1" width="1.83203125" customWidth="1"/>
+    <col min="2" max="2" width="4.1640625" customWidth="1"/>
+    <col min="3" max="3" width="101.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" customWidth="1"/>
+    <col min="10" max="10" width="32.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="6.75" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:8" ht="19.5" thickBot="1">
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="2:8">
+    <row r="1" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="2" spans="2:10" ht="18">
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="2:10">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -613,8 +668,14 @@
       <c r="H3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" hidden="1">
+      <c r="I3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" hidden="1">
       <c r="B4">
         <v>3</v>
       </c>
@@ -635,7 +696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:10">
       <c r="B5" s="3">
         <v>4</v>
       </c>
@@ -658,8 +719,14 @@
       <c r="H5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:8">
+      <c r="I5">
+        <v>80</v>
+      </c>
+      <c r="J5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
       <c r="B6" s="3">
         <v>5</v>
       </c>
@@ -682,8 +749,14 @@
       <c r="H6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:8">
+      <c r="I6">
+        <v>80</v>
+      </c>
+      <c r="J6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
       <c r="B7" s="3">
         <v>33</v>
       </c>
@@ -706,8 +779,14 @@
       <c r="H7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" hidden="1">
+      <c r="I7">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" hidden="1">
       <c r="B8">
         <v>6</v>
       </c>
@@ -728,7 +807,7 @@
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="9" spans="2:8" hidden="1">
+    <row r="9" spans="2:10" hidden="1">
       <c r="B9">
         <v>9</v>
       </c>
@@ -749,7 +828,7 @@
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="2:10">
       <c r="B10" s="3">
         <v>19</v>
       </c>
@@ -772,8 +851,14 @@
       <c r="H10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="2:8">
+      <c r="I10">
+        <v>80</v>
+      </c>
+      <c r="J10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
       <c r="B11" s="3">
         <v>22</v>
       </c>
@@ -796,8 +881,14 @@
       <c r="H11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="2:8">
+      <c r="I11">
+        <v>80</v>
+      </c>
+      <c r="J11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
       <c r="B12" s="3">
         <v>26</v>
       </c>
@@ -820,8 +911,14 @@
       <c r="H12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" hidden="1">
+      <c r="I12">
+        <v>80</v>
+      </c>
+      <c r="J12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" hidden="1">
       <c r="B13">
         <v>34</v>
       </c>
@@ -842,7 +939,7 @@
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="14" spans="2:8">
+    <row r="14" spans="2:10">
       <c r="B14" s="3">
         <v>35</v>
       </c>
@@ -865,8 +962,14 @@
       <c r="H14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" hidden="1">
+      <c r="I14">
+        <v>80</v>
+      </c>
+      <c r="J14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" hidden="1">
       <c r="B15">
         <v>2</v>
       </c>
@@ -887,7 +990,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:10">
       <c r="B16" s="3">
         <v>21</v>
       </c>
@@ -910,8 +1013,14 @@
       <c r="H16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:8">
+      <c r="I16">
+        <v>80</v>
+      </c>
+      <c r="J16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
       <c r="B17" s="3">
         <v>27</v>
       </c>
@@ -934,8 +1043,14 @@
       <c r="H17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" hidden="1">
+      <c r="I17">
+        <v>80</v>
+      </c>
+      <c r="J17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" hidden="1">
       <c r="B18">
         <v>23</v>
       </c>
@@ -956,7 +1071,7 @@
         <v>1.6666666666666667</v>
       </c>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:10">
       <c r="B19" s="3">
         <v>24</v>
       </c>
@@ -979,8 +1094,14 @@
       <c r="H19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="2:8">
+      <c r="I19">
+        <v>80</v>
+      </c>
+      <c r="J19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
       <c r="B20" s="3">
         <v>29</v>
       </c>
@@ -1003,8 +1124,14 @@
       <c r="H20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" hidden="1">
+      <c r="I20">
+        <v>80</v>
+      </c>
+      <c r="J20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" hidden="1">
       <c r="B21">
         <v>11</v>
       </c>
@@ -1025,7 +1152,7 @@
         <v>1.625</v>
       </c>
     </row>
-    <row r="22" spans="2:8" hidden="1">
+    <row r="22" spans="2:10" hidden="1">
       <c r="B22">
         <v>16</v>
       </c>
@@ -1046,11 +1173,11 @@
         <v>1.625</v>
       </c>
     </row>
-    <row r="23" spans="2:8">
-      <c r="B23">
+    <row r="23" spans="2:10">
+      <c r="B23" s="4">
         <v>17</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D23" t="s">
@@ -1066,8 +1193,11 @@
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
         <v>1.6</v>
       </c>
-    </row>
-    <row r="24" spans="2:8">
+      <c r="H23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
       <c r="B24" s="3">
         <v>25</v>
       </c>
@@ -1090,8 +1220,14 @@
       <c r="H24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" hidden="1">
+      <c r="I24">
+        <v>80</v>
+      </c>
+      <c r="J24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" hidden="1">
       <c r="B25">
         <v>37</v>
       </c>
@@ -1112,7 +1248,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="26" spans="2:8" hidden="1">
+    <row r="26" spans="2:10" hidden="1">
       <c r="B26">
         <v>38</v>
       </c>
@@ -1133,11 +1269,11 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="27" spans="2:8">
-      <c r="B27">
+    <row r="27" spans="2:10">
+      <c r="B27" s="4">
         <v>39</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D27" t="s">
@@ -1153,8 +1289,11 @@
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
         <v>1.6</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" hidden="1">
+      <c r="H27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" hidden="1">
       <c r="B28">
         <v>40</v>
       </c>
@@ -1175,11 +1314,11 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="29" spans="2:8">
-      <c r="B29">
+    <row r="29" spans="2:10">
+      <c r="B29" s="4">
         <v>41</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D29" t="s">
@@ -1195,8 +1334,11 @@
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
         <v>1.6</v>
       </c>
-    </row>
-    <row r="30" spans="2:8" hidden="1">
+      <c r="H29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" hidden="1">
       <c r="B30">
         <v>42</v>
       </c>
@@ -1217,11 +1359,11 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="31" spans="2:8">
-      <c r="B31">
+    <row r="31" spans="2:10">
+      <c r="B31" s="4">
         <v>43</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D31" t="s">
@@ -1237,8 +1379,11 @@
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
         <v>1.6</v>
       </c>
-    </row>
-    <row r="32" spans="2:8">
+      <c r="H31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10">
       <c r="B32">
         <v>10</v>
       </c>
@@ -1259,7 +1404,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="2:8">
       <c r="B33">
         <v>28</v>
       </c>
@@ -1280,7 +1425,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="34" spans="2:7">
+    <row r="34" spans="2:8">
       <c r="B34">
         <v>7</v>
       </c>
@@ -1301,7 +1446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:7">
+    <row r="35" spans="2:8">
       <c r="B35">
         <v>8</v>
       </c>
@@ -1322,7 +1467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:7" hidden="1">
+    <row r="36" spans="2:8" hidden="1">
       <c r="B36">
         <v>13</v>
       </c>
@@ -1343,7 +1488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:7">
+    <row r="37" spans="2:8">
       <c r="B37">
         <v>14</v>
       </c>
@@ -1364,11 +1509,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:7">
-      <c r="B38">
+    <row r="38" spans="2:8">
+      <c r="B38" s="4">
         <v>18</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D38" t="s">
@@ -1384,12 +1529,15 @@
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="2:7">
-      <c r="B39">
+      <c r="H38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="4">
         <v>20</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D39" t="s">
@@ -1405,12 +1553,15 @@
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="2:7">
-      <c r="B40">
+      <c r="H39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="4">
         <v>30</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D40" t="s">
@@ -1426,8 +1577,11 @@
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="2:7">
+      <c r="H40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8">
       <c r="B41">
         <v>32</v>
       </c>
@@ -1448,7 +1602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:7" hidden="1">
+    <row r="42" spans="2:8" hidden="1">
       <c r="B42">
         <v>44</v>
       </c>
@@ -1469,7 +1623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:7">
+    <row r="43" spans="2:8">
       <c r="B43">
         <v>45</v>
       </c>
@@ -1490,7 +1644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:7" hidden="1">
+    <row r="44" spans="2:8" hidden="1">
       <c r="B44">
         <v>46</v>
       </c>
@@ -1511,11 +1665,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:7">
-      <c r="B45">
+    <row r="45" spans="2:8">
+      <c r="B45" s="4">
         <v>31</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D45" t="s">
@@ -1531,8 +1685,11 @@
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="46" spans="2:7" hidden="1">
+      <c r="H45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" hidden="1">
       <c r="B46">
         <v>15</v>
       </c>
@@ -1553,15 +1710,20 @@
         <v>0.61904761904761907</v>
       </c>
     </row>
-    <row r="47" spans="2:7" hidden="1"/>
+    <row r="47" spans="2:8" hidden="1"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Trunk/Doc/Product BackLog.xlsx
+++ b/Trunk/Doc/Product BackLog.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="51">
   <si>
     <t>#</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>Product BackLog</t>
-  </si>
-  <si>
-    <t>Como ciclista gostaria enviar uma imagem a rota</t>
   </si>
   <si>
     <t>Como ciclista quero informar meu status após um evento</t>
@@ -217,7 +214,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,6 +239,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -261,7 +264,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -275,8 +278,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -288,20 +295,25 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -322,16 +334,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B3:J47" totalsRowShown="0">
-  <autoFilter ref="B3:J47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B3:J46" totalsRowShown="0">
+  <autoFilter ref="B3:J46">
     <filterColumn colId="2">
-      <filters>
-        <filter val="Web"/>
-      </filters>
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
-  <sortState ref="B4:G48">
-    <sortCondition descending="1" ref="G3:G49"/>
+  <sortState ref="B4:J46">
+    <sortCondition descending="1" ref="F3:F47"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" name="#"/>
@@ -605,7 +622,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -614,10 +631,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="B1:J47"/>
+  <dimension ref="B1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -654,7 +671,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
@@ -666,187 +683,172 @@
         <v>4</v>
       </c>
       <c r="H3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" t="s">
         <v>46</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>47</v>
-      </c>
-      <c r="J3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="4" spans="2:10" hidden="1">
       <c r="B4">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.625</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" hidden="1">
+      <c r="B5">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.625</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>8</v>
-      </c>
-      <c r="G4">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10">
-      <c r="B5" s="3">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>8</v>
-      </c>
-      <c r="G5">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>4</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>80</v>
-      </c>
-      <c r="J5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10">
-      <c r="B6" s="3">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F6">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G6">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>80</v>
-      </c>
-      <c r="J6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="B7" s="3">
-        <v>33</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>42</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" hidden="1">
+      <c r="B7">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G7">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>4</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>80</v>
-      </c>
-      <c r="J7" t="s">
-        <v>49</v>
+        <v>0.61904761904761907</v>
       </c>
     </row>
     <row r="8" spans="2:10" hidden="1">
       <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>8</v>
       </c>
       <c r="G8">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>2.6666666666666665</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" hidden="1">
-      <c r="B9">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="3">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>8</v>
       </c>
       <c r="G9">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>2.6666666666666665</v>
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>80</v>
+      </c>
+      <c r="J9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="3">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>8</v>
       </c>
       <c r="G10">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>2.6666666666666665</v>
+        <v>4</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -860,23 +862,23 @@
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="3">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>8</v>
       </c>
       <c r="G11">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>2.6666666666666665</v>
+        <v>4</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -885,18 +887,18 @@
         <v>80</v>
       </c>
       <c r="J11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="B12" s="3">
-        <v>26</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>28</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" hidden="1">
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -907,26 +909,17 @@
       <c r="G12">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
         <v>2.6666666666666665</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>80</v>
-      </c>
-      <c r="J12" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="13" spans="2:10" hidden="1">
       <c r="B13">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -941,13 +934,13 @@
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="3">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -966,49 +959,58 @@
         <v>80</v>
       </c>
       <c r="J14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" hidden="1">
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="3">
+        <v>22</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G15">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>2.5</v>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>80</v>
+      </c>
+      <c r="J15" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="3">
-        <v>21</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G16">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>2.5</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1017,109 +1019,103 @@
         <v>80</v>
       </c>
       <c r="J16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="B17" s="3">
-        <v>27</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>43</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" hidden="1">
+      <c r="B17">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>8</v>
+      </c>
+      <c r="G17">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="3">
+        <v>35</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>8</v>
+      </c>
+      <c r="G18">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>80</v>
+      </c>
+      <c r="J18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="4">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>8</v>
+      </c>
+      <c r="G19">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.6</v>
+      </c>
+      <c r="H19">
         <v>2</v>
-      </c>
-      <c r="F17">
-        <v>5</v>
-      </c>
-      <c r="G17">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>2.5</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>80</v>
-      </c>
-      <c r="J17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" hidden="1">
-      <c r="B18">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>5</v>
-      </c>
-      <c r="G18">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.6666666666666667</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="B19" s="3">
-        <v>24</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>5</v>
-      </c>
-      <c r="G19">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>80</v>
-      </c>
-      <c r="J19" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="3">
-        <v>29</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F20">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G20">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.6666666666666667</v>
+        <v>1.6</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -1128,60 +1124,66 @@
         <v>80</v>
       </c>
       <c r="J20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" hidden="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
       <c r="B21">
-        <v>11</v>
-      </c>
-      <c r="C21" t="s">
-        <v>16</v>
+        <v>37</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E21">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F21">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G21">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.625</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" hidden="1">
+        <v>1.6</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
       <c r="B22">
-        <v>16</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E22">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F22">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G22">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.625</v>
+        <v>1.6</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="4">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E23">
         <v>5</v>
@@ -1198,14 +1200,14 @@
       </c>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="3">
-        <v>25</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>27</v>
+      <c r="B24">
+        <v>40</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E24">
         <v>5</v>
@@ -1218,66 +1220,66 @@
         <v>1.6</v>
       </c>
       <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>80</v>
-      </c>
-      <c r="J24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" hidden="1">
-      <c r="B25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="4">
+        <v>41</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25">
+        <v>8</v>
+      </c>
+      <c r="G25">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.6</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26">
+        <v>42</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C25" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25">
-        <v>5</v>
-      </c>
-      <c r="F25">
-        <v>8</v>
-      </c>
-      <c r="G25">
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="F26">
+        <v>8</v>
+      </c>
+      <c r="G26">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
         <v>1.6</v>
       </c>
-    </row>
-    <row r="26" spans="2:10" hidden="1">
-      <c r="B26">
-        <v>38</v>
-      </c>
-      <c r="C26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26">
-        <v>5</v>
-      </c>
-      <c r="F26">
-        <v>8</v>
-      </c>
-      <c r="G26">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.6</v>
+      <c r="H26">
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="4">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E27">
         <v>5</v>
@@ -1295,181 +1297,211 @@
     </row>
     <row r="28" spans="2:10" hidden="1">
       <c r="B28">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D28" t="s">
         <v>10</v>
       </c>
       <c r="E28">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F28">
         <v>8</v>
       </c>
       <c r="G28">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10">
-      <c r="B29" s="4">
-        <v>41</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>37</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" hidden="1">
+      <c r="B29">
+        <v>46</v>
+      </c>
+      <c r="C29" t="s">
+        <v>39</v>
       </c>
       <c r="D29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F29">
         <v>8</v>
       </c>
       <c r="G29">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.6</v>
-      </c>
-      <c r="H29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="3">
+        <v>21</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="2:10" hidden="1">
-      <c r="B30">
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>2.5</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>80</v>
+      </c>
+      <c r="J30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="3">
+        <v>27</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C30" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30">
-        <v>5</v>
-      </c>
-      <c r="F30">
-        <v>8</v>
-      </c>
-      <c r="G30">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10">
-      <c r="B31" s="4">
-        <v>43</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="D31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E31">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G31">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="H31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>80</v>
+      </c>
+      <c r="J31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" hidden="1">
       <c r="B32">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D32" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G32">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8">
-      <c r="B33">
-        <v>28</v>
-      </c>
-      <c r="C33" t="s">
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="3">
+        <v>24</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>5</v>
+      </c>
+      <c r="G33">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>80</v>
+      </c>
+      <c r="J33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="3">
         <v>29</v>
       </c>
-      <c r="D33" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>3</v>
-      </c>
-      <c r="G33">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8">
-      <c r="B34">
-        <v>7</v>
-      </c>
-      <c r="C34" t="s">
-        <v>12</v>
+      <c r="C34" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="D34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>5</v>
+      </c>
+      <c r="G34">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>80</v>
+      </c>
+      <c r="J34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" hidden="1">
+      <c r="B35">
         <v>13</v>
       </c>
-      <c r="F34">
-        <v>13</v>
-      </c>
-      <c r="G34">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8">
-      <c r="B35">
-        <v>8</v>
-      </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E35">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F35">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G35">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:8" hidden="1">
+    <row r="36" spans="2:10" hidden="1">
       <c r="B36">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C36" t="s">
         <v>17</v>
@@ -1488,192 +1520,192 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:8">
+    <row r="37" spans="2:10" hidden="1">
       <c r="B37">
+        <v>44</v>
+      </c>
+      <c r="C37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37">
+        <v>5</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+      <c r="G37">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" hidden="1">
+      <c r="B38">
+        <v>45</v>
+      </c>
+      <c r="C38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38">
+        <v>5</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" hidden="1">
+      <c r="B39">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
         <v>14</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" hidden="1">
+      <c r="B40">
+        <v>28</v>
+      </c>
+      <c r="C40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+      <c r="G40">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="4">
         <v>18</v>
       </c>
-      <c r="D37" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37">
-        <v>5</v>
-      </c>
-      <c r="F37">
-        <v>5</v>
-      </c>
-      <c r="G37">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8">
-      <c r="B38" s="4">
-        <v>18</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D38" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38">
-        <v>3</v>
-      </c>
-      <c r="F38">
-        <v>3</v>
-      </c>
-      <c r="G38">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1</v>
-      </c>
-      <c r="H38">
+      <c r="C41" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="F41">
+        <v>3</v>
+      </c>
+      <c r="G41">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1</v>
+      </c>
+      <c r="H41">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="2:8">
-      <c r="B39" s="4">
+    <row r="42" spans="2:10">
+      <c r="B42" s="4">
         <v>20</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D39" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39">
-        <v>3</v>
-      </c>
-      <c r="F39">
-        <v>3</v>
-      </c>
-      <c r="G39">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1</v>
-      </c>
-      <c r="H39">
+      <c r="C42" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="F42">
+        <v>3</v>
+      </c>
+      <c r="G42">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1</v>
+      </c>
+      <c r="H42">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="2:8">
-      <c r="B40" s="4">
+    <row r="43" spans="2:10">
+      <c r="B43" s="4">
         <v>30</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C43" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+      <c r="G43">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" hidden="1">
+      <c r="B44">
         <v>32</v>
       </c>
-      <c r="D40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40">
-        <v>3</v>
-      </c>
-      <c r="F40">
-        <v>3</v>
-      </c>
-      <c r="G40">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1</v>
-      </c>
-      <c r="H40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8">
-      <c r="B41">
+      <c r="C44" t="s">
         <v>32</v>
       </c>
-      <c r="C41" t="s">
-        <v>33</v>
-      </c>
-      <c r="D41" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41">
-        <v>3</v>
-      </c>
-      <c r="F41">
-        <v>3</v>
-      </c>
-      <c r="G41">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" hidden="1">
-      <c r="B42">
-        <v>44</v>
-      </c>
-      <c r="C42" t="s">
-        <v>39</v>
-      </c>
-      <c r="D42" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42">
-        <v>5</v>
-      </c>
-      <c r="F42">
-        <v>5</v>
-      </c>
-      <c r="G42">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8">
-      <c r="B43">
-        <v>45</v>
-      </c>
-      <c r="C43" t="s">
-        <v>39</v>
-      </c>
-      <c r="D43" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43">
-        <v>5</v>
-      </c>
-      <c r="F43">
-        <v>5</v>
-      </c>
-      <c r="G43">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" hidden="1">
-      <c r="B44">
-        <v>46</v>
-      </c>
-      <c r="C44" t="s">
-        <v>40</v>
-      </c>
       <c r="D44" t="s">
         <v>10</v>
       </c>
       <c r="E44">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F44">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G44">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:8">
+    <row r="45" spans="2:10">
       <c r="B45" s="4">
         <v>31</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E45">
         <v>3</v>
@@ -1689,28 +1721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="2:8" hidden="1">
-      <c r="B46">
-        <v>15</v>
-      </c>
-      <c r="C46" t="s">
-        <v>44</v>
-      </c>
-      <c r="D46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46">
-        <v>21</v>
-      </c>
-      <c r="F46">
-        <v>13</v>
-      </c>
-      <c r="G46">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>0.61904761904761907</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" hidden="1"/>
+    <row r="46" spans="2:10" hidden="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:J2"/>

--- a/Trunk/Doc/Product BackLog.xlsx
+++ b/Trunk/Doc/Product BackLog.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="23812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Douglas\Documents\Unibratec\Repositorios\fusioness\Trunk\Doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-440" windowWidth="25600" windowHeight="16000"/>
+    <workbookView xWindow="0" yWindow="-435" windowWidth="25605" windowHeight="16005"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -328,6 +333,11 @@
       <filters>
         <filter val="Web"/>
       </filters>
+    </filterColumn>
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
   <sortState ref="B4:G48">
@@ -605,7 +615,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -613,27 +623,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="B1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.83203125" customWidth="1"/>
-    <col min="2" max="2" width="4.1640625" customWidth="1"/>
-    <col min="3" max="3" width="101.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="6.33203125" customWidth="1"/>
-    <col min="10" max="10" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.85546875" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" customWidth="1"/>
+    <col min="3" max="3" width="101.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" customWidth="1"/>
+    <col min="10" max="10" width="32.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="2" spans="2:10" ht="18">
+    <row r="1" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
@@ -646,7 +655,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -675,7 +684,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="2:10" hidden="1">
+    <row r="4" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>3</v>
       </c>
@@ -696,7 +705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>4</v>
       </c>
@@ -726,7 +735,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>5</v>
       </c>
@@ -756,7 +765,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>33</v>
       </c>
@@ -786,7 +795,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="2:10" hidden="1">
+    <row r="8" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>6</v>
       </c>
@@ -807,7 +816,7 @@
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="9" spans="2:10" hidden="1">
+    <row r="9" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>9</v>
       </c>
@@ -828,7 +837,7 @@
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>19</v>
       </c>
@@ -858,7 +867,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>22</v>
       </c>
@@ -888,7 +897,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>26</v>
       </c>
@@ -918,7 +927,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="2:10" hidden="1">
+    <row r="13" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>34</v>
       </c>
@@ -939,7 +948,7 @@
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>35</v>
       </c>
@@ -969,7 +978,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="2:10" hidden="1">
+    <row r="15" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>2</v>
       </c>
@@ -990,7 +999,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>21</v>
       </c>
@@ -1020,7 +1029,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <v>27</v>
       </c>
@@ -1050,7 +1059,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="2:10" hidden="1">
+    <row r="18" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>23</v>
       </c>
@@ -1071,7 +1080,7 @@
         <v>1.6666666666666667</v>
       </c>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <v>24</v>
       </c>
@@ -1101,7 +1110,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <v>29</v>
       </c>
@@ -1131,7 +1140,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="2:10" hidden="1">
+    <row r="21" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>11</v>
       </c>
@@ -1152,7 +1161,7 @@
         <v>1.625</v>
       </c>
     </row>
-    <row r="22" spans="2:10" hidden="1">
+    <row r="22" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>16</v>
       </c>
@@ -1173,7 +1182,7 @@
         <v>1.625</v>
       </c>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="4">
         <v>17</v>
       </c>
@@ -1197,7 +1206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <v>25</v>
       </c>
@@ -1227,7 +1236,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="2:10" hidden="1">
+    <row r="25" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>37</v>
       </c>
@@ -1248,7 +1257,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="26" spans="2:10" hidden="1">
+    <row r="26" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>38</v>
       </c>
@@ -1269,7 +1278,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="4">
         <v>39</v>
       </c>
@@ -1293,7 +1302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="2:10" hidden="1">
+    <row r="28" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>40</v>
       </c>
@@ -1314,7 +1323,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="4">
         <v>41</v>
       </c>
@@ -1338,7 +1347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="2:10" hidden="1">
+    <row r="30" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>42</v>
       </c>
@@ -1359,7 +1368,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="4">
         <v>43</v>
       </c>
@@ -1383,7 +1392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>10</v>
       </c>
@@ -1404,7 +1413,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>28</v>
       </c>
@@ -1425,7 +1434,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="34" spans="2:8">
+    <row r="34" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>7</v>
       </c>
@@ -1446,7 +1455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:8">
+    <row r="35" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>8</v>
       </c>
@@ -1467,7 +1476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:8" hidden="1">
+    <row r="36" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>13</v>
       </c>
@@ -1488,7 +1497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:8">
+    <row r="37" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>14</v>
       </c>
@@ -1509,7 +1518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:8">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="4">
         <v>18</v>
       </c>
@@ -1533,7 +1542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="2:8">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="4">
         <v>20</v>
       </c>
@@ -1557,7 +1566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="2:8">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="4">
         <v>30</v>
       </c>
@@ -1581,7 +1590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="2:8">
+    <row r="41" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>32</v>
       </c>
@@ -1602,7 +1611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:8" hidden="1">
+    <row r="42" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>44</v>
       </c>
@@ -1623,7 +1632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:8">
+    <row r="43" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>45</v>
       </c>
@@ -1644,7 +1653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:8" hidden="1">
+    <row r="44" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>46</v>
       </c>
@@ -1665,7 +1674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:8">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="4">
         <v>31</v>
       </c>
@@ -1689,7 +1698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="2:8" hidden="1">
+    <row r="46" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>15</v>
       </c>
@@ -1710,7 +1719,7 @@
         <v>0.61904761904761907</v>
       </c>
     </row>
-    <row r="47" spans="2:8" hidden="1"/>
+    <row r="47" spans="2:8" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:J2"/>

--- a/Trunk/Doc/Product BackLog.xlsx
+++ b/Trunk/Doc/Product BackLog.xlsx
@@ -1,33 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="23812"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Douglas\Documents\Unibratec\Repositorios\fusioness\Trunk\Doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-435" windowWidth="25605" windowHeight="16005"/>
+    <workbookView xWindow="0" yWindow="-440" windowWidth="25600" windowHeight="16000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="51">
   <si>
     <t>#</t>
   </si>
@@ -45,9 +40,6 @@
   </si>
   <si>
     <t>Product BackLog</t>
-  </si>
-  <si>
-    <t>Como ciclista gostaria enviar uma imagem a rota</t>
   </si>
   <si>
     <t>Como ciclista quero informar meu status após um evento</t>
@@ -222,7 +214,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,6 +239,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -266,7 +264,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -280,8 +278,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -293,20 +295,25 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -327,12 +334,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B3:J47" totalsRowShown="0">
-  <autoFilter ref="B3:J47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B3:J46" totalsRowShown="0">
+  <autoFilter ref="B3:J46">
     <filterColumn colId="2">
-      <filters>
-        <filter val="Web"/>
-      </filters>
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
     </filterColumn>
     <filterColumn colId="6">
       <customFilters>
@@ -340,8 +347,8 @@
       </customFilters>
     </filterColumn>
   </autoFilter>
-  <sortState ref="B4:G48">
-    <sortCondition descending="1" ref="G3:G49"/>
+  <sortState ref="B4:J46">
+    <sortCondition descending="1" ref="F3:F47"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" name="#"/>
@@ -615,7 +622,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -623,26 +630,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J47"/>
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
+  <dimension ref="B1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" customWidth="1"/>
-    <col min="3" max="3" width="101.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
-    <col min="7" max="7" width="6.28515625" customWidth="1"/>
-    <col min="10" max="10" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.83203125" customWidth="1"/>
+    <col min="2" max="2" width="4.1640625" customWidth="1"/>
+    <col min="3" max="3" width="101.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" customWidth="1"/>
+    <col min="10" max="10" width="32.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="2" spans="2:10" ht="18">
       <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
@@ -655,7 +663,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -663,7 +671,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
@@ -675,187 +683,172 @@
         <v>4</v>
       </c>
       <c r="H3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" t="s">
         <v>46</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>47</v>
       </c>
-      <c r="J3" t="s">
+    </row>
+    <row r="4" spans="2:10" hidden="1">
+      <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.625</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" hidden="1">
+      <c r="B5">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.625</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>13</v>
+      </c>
+      <c r="G6">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" hidden="1">
+      <c r="B7">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>21</v>
+      </c>
+      <c r="F7">
+        <v>13</v>
+      </c>
+      <c r="G7">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>0.61904761904761907</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" hidden="1">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="3">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>80</v>
+      </c>
+      <c r="J9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="10" spans="2:10">
+      <c r="B10" s="3">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10">
         <v>2</v>
       </c>
-      <c r="F4">
-        <v>8</v>
-      </c>
-      <c r="G4">
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
         <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>8</v>
-      </c>
-      <c r="G5">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>4</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>80</v>
-      </c>
-      <c r="J5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>8</v>
-      </c>
-      <c r="G6">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>4</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>80</v>
-      </c>
-      <c r="J6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
-        <v>33</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>8</v>
-      </c>
-      <c r="G7">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>4</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>80</v>
-      </c>
-      <c r="J7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>8</v>
-      </c>
-      <c r="G8">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>2.6666666666666665</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>8</v>
-      </c>
-      <c r="G9">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>2.6666666666666665</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
-        <v>19</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>8</v>
-      </c>
-      <c r="G10">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>2.6666666666666665</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -867,25 +860,25 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10">
       <c r="B11" s="3">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>8</v>
       </c>
       <c r="G11">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>2.6666666666666665</v>
+        <v>4</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -894,18 +887,18 @@
         <v>80</v>
       </c>
       <c r="J11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
-        <v>26</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>28</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" hidden="1">
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -917,25 +910,16 @@
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>80</v>
-      </c>
-      <c r="J12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:10" hidden="1">
       <c r="B13">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -948,15 +932,15 @@
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10">
       <c r="B14" s="3">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -975,49 +959,58 @@
         <v>80</v>
       </c>
       <c r="J14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="3">
+        <v>22</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G15">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>80</v>
+      </c>
+      <c r="J15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" s="3">
-        <v>21</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G16">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>2.5</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1026,109 +1019,103 @@
         <v>80</v>
       </c>
       <c r="J16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="3">
-        <v>27</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>43</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" hidden="1">
+      <c r="B17">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>8</v>
+      </c>
+      <c r="G17">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="3">
+        <v>35</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>8</v>
+      </c>
+      <c r="G18">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>80</v>
+      </c>
+      <c r="J18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="4">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>8</v>
+      </c>
+      <c r="G19">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.6</v>
+      </c>
+      <c r="H19">
         <v>2</v>
       </c>
-      <c r="F17">
-        <v>5</v>
-      </c>
-      <c r="G17">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>2.5</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>80</v>
-      </c>
-      <c r="J17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="3">
+        <v>25</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>5</v>
-      </c>
-      <c r="G18">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.6666666666666667</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="3">
-        <v>24</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>5</v>
-      </c>
-      <c r="G19">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>80</v>
-      </c>
-      <c r="J19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="3">
-        <v>29</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F20">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G20">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.6666666666666667</v>
+        <v>1.6</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -1137,60 +1124,66 @@
         <v>80</v>
       </c>
       <c r="J20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
       <c r="B21">
-        <v>11</v>
-      </c>
-      <c r="C21" t="s">
-        <v>16</v>
+        <v>37</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E21">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F21">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G21">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.625</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>1.6</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
       <c r="B22">
-        <v>16</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E22">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F22">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G22">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.625</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+        <v>1.6</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
       <c r="B23" s="4">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E23">
         <v>5</v>
@@ -1206,15 +1199,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="3">
-        <v>25</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>27</v>
+    <row r="24" spans="2:10">
+      <c r="B24">
+        <v>40</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E24">
         <v>5</v>
@@ -1227,66 +1220,66 @@
         <v>1.6</v>
       </c>
       <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>80</v>
-      </c>
-      <c r="J24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="4">
+        <v>41</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25">
+        <v>8</v>
+      </c>
+      <c r="G25">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.6</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26">
+        <v>42</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C25" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25">
-        <v>5</v>
-      </c>
-      <c r="F25">
-        <v>8</v>
-      </c>
-      <c r="G25">
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="F26">
+        <v>8</v>
+      </c>
+      <c r="G26">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
         <v>1.6</v>
       </c>
-    </row>
-    <row r="26" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>38</v>
-      </c>
-      <c r="C26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26">
-        <v>5</v>
-      </c>
-      <c r="F26">
-        <v>8</v>
-      </c>
-      <c r="G26">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
       <c r="B27" s="4">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E27">
         <v>5</v>
@@ -1302,183 +1295,213 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" hidden="1">
       <c r="B28">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="D28" t="s">
         <v>10</v>
       </c>
       <c r="E28">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F28">
         <v>8</v>
       </c>
       <c r="G28">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="4">
-        <v>41</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>37</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" hidden="1">
+      <c r="B29">
+        <v>46</v>
+      </c>
+      <c r="C29" t="s">
+        <v>39</v>
       </c>
       <c r="D29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E29">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F29">
         <v>8</v>
       </c>
       <c r="G29">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.6</v>
-      </c>
-      <c r="H29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="3">
+        <v>21</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B30">
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>2.5</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>80</v>
+      </c>
+      <c r="J30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="3">
+        <v>27</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C30" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30">
-        <v>5</v>
-      </c>
-      <c r="F30">
-        <v>8</v>
-      </c>
-      <c r="G30">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="4">
-        <v>43</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="D31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E31">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G31">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="H31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>80</v>
+      </c>
+      <c r="J31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" hidden="1">
       <c r="B32">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D32" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G32">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <v>28</v>
-      </c>
-      <c r="C33" t="s">
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="3">
+        <v>24</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>5</v>
+      </c>
+      <c r="G33">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>80</v>
+      </c>
+      <c r="J33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="3">
         <v>29</v>
       </c>
-      <c r="D33" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>3</v>
-      </c>
-      <c r="G33">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <v>7</v>
-      </c>
-      <c r="C34" t="s">
-        <v>12</v>
+      <c r="C34" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="D34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>5</v>
+      </c>
+      <c r="G34">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>80</v>
+      </c>
+      <c r="J34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" hidden="1">
+      <c r="B35">
         <v>13</v>
       </c>
-      <c r="F34">
-        <v>13</v>
-      </c>
-      <c r="G34">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <v>8</v>
-      </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E35">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F35">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G35">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" hidden="1">
       <c r="B36">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C36" t="s">
         <v>17</v>
@@ -1497,192 +1520,192 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" hidden="1">
       <c r="B37">
+        <v>44</v>
+      </c>
+      <c r="C37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37">
+        <v>5</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+      <c r="G37">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" hidden="1">
+      <c r="B38">
+        <v>45</v>
+      </c>
+      <c r="C38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38">
+        <v>5</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" hidden="1">
+      <c r="B39">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
         <v>14</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" hidden="1">
+      <c r="B40">
+        <v>28</v>
+      </c>
+      <c r="C40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+      <c r="G40">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="4">
         <v>18</v>
       </c>
-      <c r="D37" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37">
-        <v>5</v>
-      </c>
-      <c r="F37">
-        <v>5</v>
-      </c>
-      <c r="G37">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="4">
-        <v>18</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D38" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38">
-        <v>3</v>
-      </c>
-      <c r="F38">
-        <v>3</v>
-      </c>
-      <c r="G38">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1</v>
-      </c>
-      <c r="H38">
+      <c r="C41" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="F41">
+        <v>3</v>
+      </c>
+      <c r="G41">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1</v>
+      </c>
+      <c r="H41">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="4">
+    <row r="42" spans="2:10">
+      <c r="B42" s="4">
         <v>20</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D39" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39">
-        <v>3</v>
-      </c>
-      <c r="F39">
-        <v>3</v>
-      </c>
-      <c r="G39">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1</v>
-      </c>
-      <c r="H39">
+      <c r="C42" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="F42">
+        <v>3</v>
+      </c>
+      <c r="G42">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1</v>
+      </c>
+      <c r="H42">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="4">
+    <row r="43" spans="2:10">
+      <c r="B43" s="4">
         <v>30</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C43" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+      <c r="G43">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" hidden="1">
+      <c r="B44">
         <v>32</v>
       </c>
-      <c r="D40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40">
-        <v>3</v>
-      </c>
-      <c r="F40">
-        <v>3</v>
-      </c>
-      <c r="G40">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1</v>
-      </c>
-      <c r="H40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B41">
+      <c r="C44" t="s">
         <v>32</v>
       </c>
-      <c r="C41" t="s">
-        <v>33</v>
-      </c>
-      <c r="D41" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41">
-        <v>3</v>
-      </c>
-      <c r="F41">
-        <v>3</v>
-      </c>
-      <c r="G41">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B42">
-        <v>44</v>
-      </c>
-      <c r="C42" t="s">
-        <v>39</v>
-      </c>
-      <c r="D42" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42">
-        <v>5</v>
-      </c>
-      <c r="F42">
-        <v>5</v>
-      </c>
-      <c r="G42">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B43">
-        <v>45</v>
-      </c>
-      <c r="C43" t="s">
-        <v>39</v>
-      </c>
-      <c r="D43" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43">
-        <v>5</v>
-      </c>
-      <c r="F43">
-        <v>5</v>
-      </c>
-      <c r="G43">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B44">
-        <v>46</v>
-      </c>
-      <c r="C44" t="s">
-        <v>40</v>
-      </c>
       <c r="D44" t="s">
         <v>10</v>
       </c>
       <c r="E44">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F44">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G44">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10">
       <c r="B45" s="4">
         <v>31</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E45">
         <v>3</v>
@@ -1698,28 +1721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B46">
-        <v>15</v>
-      </c>
-      <c r="C46" t="s">
-        <v>44</v>
-      </c>
-      <c r="D46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46">
-        <v>21</v>
-      </c>
-      <c r="F46">
-        <v>13</v>
-      </c>
-      <c r="G46">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>0.61904761904761907</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="2:10" hidden="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:J2"/>

--- a/Trunk/Doc/Product BackLog.xlsx
+++ b/Trunk/Doc/Product BackLog.xlsx
@@ -1,28 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="23812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projeto Final\fusioness\Trunk\Doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-440" windowWidth="25600" windowHeight="16000"/>
+    <workbookView xWindow="0" yWindow="-435" windowWidth="25605" windowHeight="16005"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="52">
   <si>
     <t>#</t>
   </si>
@@ -175,6 +180,9 @@
   </si>
   <si>
     <t>Falta validação e chamada do webservice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como usuário gostaria de fazer Login </t>
   </si>
 </sst>
 </file>
@@ -289,13 +297,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -334,21 +342,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B3:J46" totalsRowShown="0">
-  <autoFilter ref="B3:J46">
-    <filterColumn colId="2">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B3:J47" totalsRowShown="0">
+  <autoFilter ref="B3:J47"/>
   <sortState ref="B4:J46">
-    <sortCondition descending="1" ref="F3:F47"/>
+    <sortCondition ref="B3:B46"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" name="#"/>
@@ -622,7 +619,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -630,40 +627,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="B1:J46"/>
+  <dimension ref="B1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.83203125" customWidth="1"/>
-    <col min="2" max="2" width="4.1640625" customWidth="1"/>
-    <col min="3" max="3" width="101.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="6.33203125" customWidth="1"/>
-    <col min="10" max="10" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.85546875" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" customWidth="1"/>
+    <col min="3" max="3" width="101.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" customWidth="1"/>
+    <col min="10" max="10" width="32.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="2" spans="2:10" ht="18">
-      <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-    </row>
-    <row r="3" spans="2:10">
+    <row r="1" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -692,180 +688,180 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="2:10" hidden="1">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G4">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.625</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" hidden="1">
-      <c r="B5">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G5">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.625</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10">
-      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>80</v>
+      </c>
+      <c r="J5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
       <c r="E6">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G6">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" hidden="1">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>80</v>
+      </c>
+      <c r="J6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
       <c r="E7">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8">
         <v>13</v>
       </c>
-      <c r="G7">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>0.61904761904761907</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" hidden="1">
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="F8">
+        <v>13</v>
+      </c>
+      <c r="G8">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10">
         <v>9</v>
       </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>8</v>
-      </c>
-      <c r="G8">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="3">
-        <v>4</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>8</v>
-      </c>
-      <c r="G9">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>4</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>80</v>
-      </c>
-      <c r="J9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="3">
-        <v>5</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>7</v>
+      <c r="C10" t="s">
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>8</v>
       </c>
       <c r="G10">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>4</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>80</v>
-      </c>
-      <c r="J10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="3">
-        <v>33</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>41</v>
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -874,569 +870,560 @@
         <v>2</v>
       </c>
       <c r="F11">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G11">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>4</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>80</v>
-      </c>
-      <c r="J11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" hidden="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F12">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G12">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>2.6666666666666665</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" hidden="1">
+        <v>1.625</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F13">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G13">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <v>21</v>
+      </c>
+      <c r="F15">
+        <v>13</v>
+      </c>
+      <c r="G15">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>0.61904761904761907</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16">
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <v>13</v>
+      </c>
+      <c r="G16">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.625</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="4">
+        <v>17</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>8</v>
+      </c>
+      <c r="G17">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.6</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <v>18</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>19</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>8</v>
+      </c>
+      <c r="G19">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
         <v>2.6666666666666665</v>
       </c>
-    </row>
-    <row r="14" spans="2:10">
-      <c r="B14" s="3">
-        <v>19</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>80</v>
+      </c>
+      <c r="J19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>20</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>21</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>2.5</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>80</v>
+      </c>
+      <c r="J21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="3">
         <v>22</v>
       </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>8</v>
-      </c>
-      <c r="G14">
+      <c r="C22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>8</v>
+      </c>
+      <c r="G22">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
         <v>80</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J22" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
-      <c r="B15" s="3">
-        <v>22</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>8</v>
-      </c>
-      <c r="G15">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+      <c r="G23">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="3">
+        <v>24</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>80</v>
+      </c>
+      <c r="J24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="3">
+        <v>25</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25">
+        <v>8</v>
+      </c>
+      <c r="G25">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.6</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>80</v>
+      </c>
+      <c r="J25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="3">
+        <v>26</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>8</v>
+      </c>
+      <c r="G26">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
         <v>80</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
-      <c r="B16" s="3">
-        <v>26</v>
-      </c>
-      <c r="C16" s="2" t="s">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="3">
         <v>27</v>
       </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>8</v>
-      </c>
-      <c r="G16">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
+      <c r="C27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="G27">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>2.5</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
         <v>80</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J27" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="2:10" hidden="1">
-      <c r="B17">
-        <v>34</v>
-      </c>
-      <c r="C17" t="s">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="3">
+        <v>29</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+      <c r="G29">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>80</v>
+      </c>
+      <c r="J29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="4">
+        <v>30</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="4">
+        <v>31</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="3">
         <v>33</v>
       </c>
-      <c r="D17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>8</v>
-      </c>
-      <c r="G17">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>2.6666666666666665</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10">
-      <c r="B18" s="3">
-        <v>35</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>8</v>
-      </c>
-      <c r="G18">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>80</v>
-      </c>
-      <c r="J18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="B19" s="4">
-        <v>17</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19">
-        <v>5</v>
-      </c>
-      <c r="F19">
-        <v>8</v>
-      </c>
-      <c r="G19">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.6</v>
-      </c>
-      <c r="H19">
+      <c r="C33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="2:10">
-      <c r="B20" s="3">
-        <v>25</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20">
-        <v>5</v>
-      </c>
-      <c r="F20">
-        <v>8</v>
-      </c>
-      <c r="G20">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.6</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>80</v>
-      </c>
-      <c r="J20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10">
-      <c r="B21">
-        <v>37</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21">
-        <v>5</v>
-      </c>
-      <c r="F21">
-        <v>8</v>
-      </c>
-      <c r="G21">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.6</v>
-      </c>
-      <c r="H21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10">
-      <c r="B22">
-        <v>38</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22">
-        <v>5</v>
-      </c>
-      <c r="F22">
-        <v>8</v>
-      </c>
-      <c r="G22">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.6</v>
-      </c>
-      <c r="H22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10">
-      <c r="B23" s="4">
-        <v>39</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23">
-        <v>5</v>
-      </c>
-      <c r="F23">
-        <v>8</v>
-      </c>
-      <c r="G23">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.6</v>
-      </c>
-      <c r="H23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10">
-      <c r="B24">
-        <v>40</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24">
-        <v>5</v>
-      </c>
-      <c r="F24">
-        <v>8</v>
-      </c>
-      <c r="G24">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.6</v>
-      </c>
-      <c r="H24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10">
-      <c r="B25" s="4">
-        <v>41</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25">
-        <v>5</v>
-      </c>
-      <c r="F25">
-        <v>8</v>
-      </c>
-      <c r="G25">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.6</v>
-      </c>
-      <c r="H25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10">
-      <c r="B26">
-        <v>42</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26">
-        <v>5</v>
-      </c>
-      <c r="F26">
-        <v>8</v>
-      </c>
-      <c r="G26">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.6</v>
-      </c>
-      <c r="H26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10">
-      <c r="B27" s="4">
-        <v>43</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27">
-        <v>5</v>
-      </c>
-      <c r="F27">
-        <v>8</v>
-      </c>
-      <c r="G27">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.6</v>
-      </c>
-      <c r="H27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" hidden="1">
-      <c r="B28">
-        <v>8</v>
-      </c>
-      <c r="C28" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28">
-        <v>8</v>
-      </c>
-      <c r="F28">
-        <v>8</v>
-      </c>
-      <c r="G28">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" hidden="1">
-      <c r="B29">
-        <v>46</v>
-      </c>
-      <c r="C29" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29">
-        <v>8</v>
-      </c>
-      <c r="F29">
-        <v>8</v>
-      </c>
-      <c r="G29">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10">
-      <c r="B30" s="3">
-        <v>21</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30">
-        <v>5</v>
-      </c>
-      <c r="G30">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>2.5</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="I30">
-        <v>80</v>
-      </c>
-      <c r="J30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10">
-      <c r="B31" s="3">
-        <v>27</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>5</v>
-      </c>
-      <c r="G31">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>2.5</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="I31">
-        <v>80</v>
-      </c>
-      <c r="J31" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" hidden="1">
-      <c r="B32">
-        <v>23</v>
-      </c>
-      <c r="C32" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>5</v>
-      </c>
-      <c r="G32">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.6666666666666667</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10">
-      <c r="B33" s="3">
-        <v>24</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
       <c r="F33">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G33">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.6666666666666667</v>
+        <v>4</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -1448,84 +1435,87 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="2:10">
-      <c r="B34" s="3">
-        <v>29</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>29</v>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>34</v>
+      </c>
+      <c r="C34" t="s">
+        <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E34">
         <v>3</v>
       </c>
       <c r="F34">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G34">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="I34">
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="3">
+        <v>35</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>8</v>
+      </c>
+      <c r="G35">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
         <v>80</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J35" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="2:10" hidden="1">
-      <c r="B35">
-        <v>13</v>
-      </c>
-      <c r="C35" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" t="s">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>37</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" t="s">
         <v>9</v>
       </c>
-      <c r="E35">
-        <v>5</v>
-      </c>
-      <c r="F35">
-        <v>5</v>
-      </c>
-      <c r="G35">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" hidden="1">
-      <c r="B36">
-        <v>14</v>
-      </c>
-      <c r="C36" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" t="s">
-        <v>10</v>
-      </c>
       <c r="E36">
         <v>5</v>
       </c>
       <c r="F36">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G36">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" hidden="1">
+        <v>1.6</v>
+      </c>
+      <c r="H36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37">
-        <v>44</v>
-      </c>
-      <c r="C37" t="s">
         <v>38</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="D37" t="s">
         <v>9</v>
@@ -1534,19 +1524,22 @@
         <v>5</v>
       </c>
       <c r="F37">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G37">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" hidden="1">
-      <c r="B38">
-        <v>45</v>
-      </c>
-      <c r="C38" t="s">
-        <v>38</v>
+        <v>1.6</v>
+      </c>
+      <c r="H37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="4">
+        <v>39</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="D38" t="s">
         <v>10</v>
@@ -1555,173 +1548,217 @@
         <v>5</v>
       </c>
       <c r="F38">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G38">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" hidden="1">
+        <v>1.6</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39">
-        <v>10</v>
-      </c>
-      <c r="C39" t="s">
-        <v>14</v>
+        <v>40</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E39">
+        <v>5</v>
+      </c>
+      <c r="F39">
+        <v>8</v>
+      </c>
+      <c r="G39">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.6</v>
+      </c>
+      <c r="H39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="4">
+        <v>41</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40">
+        <v>5</v>
+      </c>
+      <c r="F40">
+        <v>8</v>
+      </c>
+      <c r="G40">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.6</v>
+      </c>
+      <c r="H40">
         <v>2</v>
       </c>
-      <c r="F39">
-        <v>3</v>
-      </c>
-      <c r="G39">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" hidden="1">
-      <c r="B40">
-        <v>28</v>
-      </c>
-      <c r="C40" t="s">
-        <v>28</v>
-      </c>
-      <c r="D40" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40">
-        <v>2</v>
-      </c>
-      <c r="F40">
-        <v>3</v>
-      </c>
-      <c r="G40">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10">
-      <c r="B41" s="4">
-        <v>18</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>40</v>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>42</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E41">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F41">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G41">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="4">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D42" t="s">
         <v>10</v>
       </c>
       <c r="E42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F42">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G42">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H42">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="2:10">
-      <c r="B43" s="4">
-        <v>30</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>31</v>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>44</v>
+      </c>
+      <c r="C43" t="s">
+        <v>38</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E43">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F43">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G43">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
         <v>1</v>
       </c>
-      <c r="H43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" hidden="1">
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D44" t="s">
         <v>10</v>
       </c>
       <c r="E44">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F44">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G44">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:10">
-      <c r="B45" s="4">
-        <v>31</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>30</v>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>46</v>
+      </c>
+      <c r="C45" t="s">
+        <v>39</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E45">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F45">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G45">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" hidden="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>47</v>
+      </c>
+      <c r="C46" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46">
+        <v>5</v>
+      </c>
+      <c r="F46">
+        <v>5</v>
+      </c>
+      <c r="G46">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>48</v>
+      </c>
+      <c r="C47" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47">
+        <v>8</v>
+      </c>
+      <c r="F47">
+        <v>5</v>
+      </c>
+      <c r="G47">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>0.625</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:J2"/>

--- a/Trunk/Doc/Product BackLog.xlsx
+++ b/Trunk/Doc/Product BackLog.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projeto Final\fusioness\Trunk\Doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-435" windowWidth="25605" windowHeight="16005"/>
+    <workbookView xWindow="0" yWindow="-435" windowWidth="20640" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="51">
   <si>
     <t>#</t>
   </si>
@@ -177,9 +172,6 @@
   </si>
   <si>
     <t>Mudar chamada do webservice</t>
-  </si>
-  <si>
-    <t>Falta validação e chamada do webservice</t>
   </si>
   <si>
     <t xml:space="preserve">Como usuário gostaria de fazer Login </t>
@@ -189,7 +181,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,8 +213,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,6 +250,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,7 +297,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -304,24 +310,26 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="17">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -343,9 +351,15 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B3:J47" totalsRowShown="0">
-  <autoFilter ref="B3:J47"/>
-  <sortState ref="B4:J46">
-    <sortCondition ref="B3:B46"/>
+  <autoFilter ref="B3:J47">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="4"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="B5:J46">
+    <sortCondition ref="H3:H47"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" name="#"/>
@@ -619,7 +633,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -627,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J47"/>
+  <dimension ref="B1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,7 +702,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>3</v>
       </c>
@@ -709,7 +723,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>4</v>
       </c>
@@ -739,7 +753,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>5</v>
       </c>
@@ -769,7 +783,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>6</v>
       </c>
@@ -790,52 +804,67 @@
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>11</v>
+    <row r="8" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
       </c>
       <c r="E8">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G8">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="H8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>80</v>
+      </c>
+      <c r="J8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>21</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G9">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+        <v>2.5</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>80</v>
+      </c>
+      <c r="J9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>9</v>
       </c>
@@ -856,28 +885,37 @@
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
+    <row r="11" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>22</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G11">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>80</v>
+      </c>
+      <c r="J11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>11</v>
       </c>
@@ -898,7 +936,7 @@
         <v>1.625</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>13</v>
       </c>
@@ -919,28 +957,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
+    <row r="14" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>24</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>5</v>
       </c>
       <c r="G14">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>80</v>
+      </c>
+      <c r="J14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>15</v>
       </c>
@@ -961,7 +1008,7 @@
         <v>0.61904761904761907</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>16</v>
       </c>
@@ -982,12 +1029,12 @@
         <v>1.625</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="4">
-        <v>17</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>21</v>
+    <row r="17" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>25</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>10</v>
@@ -1003,93 +1050,102 @@
         <v>1.6</v>
       </c>
       <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>26</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>8</v>
+      </c>
+      <c r="G18">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>27</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="4">
-        <v>18</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>3</v>
-      </c>
-      <c r="G18">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="3">
-        <v>19</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
       <c r="F19">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G19">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>2.6666666666666665</v>
+        <v>2.5</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>29</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
         <v>80</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J20" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="4">
-        <v>20</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>3</v>
-      </c>
-      <c r="G20">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
         <v>10</v>
@@ -1098,28 +1154,25 @@
         <v>2</v>
       </c>
       <c r="F21">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G21">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>80</v>
-      </c>
-      <c r="J21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
         <v>10</v>
@@ -1144,7 +1197,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>23</v>
       </c>
@@ -1165,277 +1218,247 @@
         <v>1.6666666666666667</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="3">
-        <v>24</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>25</v>
+    <row r="24" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="4">
+        <v>17</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="D24" t="s">
         <v>10</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F24">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G24">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.6666666666666667</v>
+        <v>1.6</v>
       </c>
       <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>80</v>
-      </c>
-      <c r="J24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="3">
-        <v>25</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>26</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="4">
+        <v>18</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="D25" t="s">
         <v>10</v>
       </c>
       <c r="E25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G25">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="4">
+        <v>20</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="4">
+        <v>30</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="4">
+        <v>31</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="4">
+        <v>39</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
+      </c>
+      <c r="F29">
+        <v>8</v>
+      </c>
+      <c r="G29">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
         <v>1.6</v>
       </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <v>80</v>
-      </c>
-      <c r="J25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="3">
-        <v>26</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>8</v>
-      </c>
-      <c r="G26">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>80</v>
-      </c>
-      <c r="J26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="3">
-        <v>27</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27">
+      <c r="H29">
         <v>2</v>
       </c>
-      <c r="F27">
-        <v>5</v>
-      </c>
-      <c r="G27">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>2.5</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27">
-        <v>80</v>
-      </c>
-      <c r="J27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>28</v>
-      </c>
-      <c r="C28" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28">
-        <v>3</v>
-      </c>
-      <c r="G28">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="3">
-        <v>29</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>5</v>
-      </c>
-      <c r="G29">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29">
-        <v>80</v>
-      </c>
-      <c r="J29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" s="4">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D30" t="s">
         <v>10</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F30">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G30">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H30">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31" s="4">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D31" t="s">
         <v>10</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G31">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>0.66666666666666663</v>
+        <v>1.6</v>
       </c>
       <c r="H31">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32">
-        <v>32</v>
-      </c>
-      <c r="C32" t="s">
-        <v>32</v>
+        <v>7</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="D32" t="s">
         <v>10</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F32">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G32">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="3">
-        <v>33</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>41</v>
+      <c r="H32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="8">
+        <v>8</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="D33" t="s">
         <v>10</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F33">
         <v>8</v>
       </c>
       <c r="G33">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1</v>
+      </c>
+      <c r="H33">
         <v>4</v>
       </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33">
-        <v>80</v>
-      </c>
-      <c r="J33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>34</v>
       </c>
@@ -1456,114 +1479,108 @@
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="3">
-        <v>35</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>33</v>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="8">
+        <v>10</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="D35" t="s">
         <v>10</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G35">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>2.6666666666666665</v>
+        <v>1.5</v>
       </c>
       <c r="H35">
-        <v>1</v>
-      </c>
-      <c r="I35">
-        <v>80</v>
-      </c>
-      <c r="J35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="8">
+        <v>14</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36">
+        <v>5</v>
+      </c>
+      <c r="F36">
+        <v>5</v>
+      </c>
+      <c r="G36">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="8">
+        <v>28</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.5</v>
+      </c>
+      <c r="H37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="8">
+        <v>32</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="G38">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B39">
         <v>37</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C39" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="D36" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36">
-        <v>5</v>
-      </c>
-      <c r="F36">
-        <v>8</v>
-      </c>
-      <c r="G36">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.6</v>
-      </c>
-      <c r="H36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37">
-        <v>38</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37">
-        <v>5</v>
-      </c>
-      <c r="F37">
-        <v>8</v>
-      </c>
-      <c r="G37">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.6</v>
-      </c>
-      <c r="H37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="4">
-        <v>39</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38">
-        <v>5</v>
-      </c>
-      <c r="F38">
-        <v>8</v>
-      </c>
-      <c r="G38">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.6</v>
-      </c>
-      <c r="H38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39">
-        <v>40</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
@@ -1582,36 +1599,36 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="4">
-        <v>41</v>
-      </c>
-      <c r="C40" s="4" t="s">
+    <row r="40" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>38</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40">
+        <v>5</v>
+      </c>
+      <c r="F40">
+        <v>8</v>
+      </c>
+      <c r="G40">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.6</v>
+      </c>
+      <c r="H40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="D40" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40">
-        <v>5</v>
-      </c>
-      <c r="F40">
-        <v>8</v>
-      </c>
-      <c r="G40">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.6</v>
-      </c>
-      <c r="H40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B41">
-        <v>42</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="D41" t="s">
         <v>9</v>
@@ -1630,15 +1647,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="4">
-        <v>43</v>
-      </c>
-      <c r="C42" s="4" t="s">
+    <row r="42" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>42</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E42">
         <v>5</v>
@@ -1651,10 +1668,10 @@
         <v>1.6</v>
       </c>
       <c r="H42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>44</v>
       </c>
@@ -1675,11 +1692,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B44">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="8">
         <v>45</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="8" t="s">
         <v>38</v>
       </c>
       <c r="D44" t="s">
@@ -1695,8 +1712,11 @@
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>46</v>
       </c>
@@ -1717,12 +1737,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B46">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="8">
         <v>47</v>
       </c>
-      <c r="C46" t="s">
-        <v>51</v>
+      <c r="C46" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="D46" t="s">
         <v>10</v>
@@ -1737,13 +1757,16 @@
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D47" t="s">
         <v>9</v>
@@ -1758,15 +1781,18 @@
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
         <v>0.625</v>
       </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/Trunk/Doc/Product BackLog.xlsx
+++ b/Trunk/Doc/Product BackLog.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="23913"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-435" windowWidth="20640" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="56">
   <si>
     <t>#</t>
   </si>
@@ -168,13 +168,28 @@
     <t>Obs.</t>
   </si>
   <si>
-    <t>Falta interface</t>
-  </si>
-  <si>
-    <t>Mudar chamada do webservice</t>
-  </si>
-  <si>
     <t xml:space="preserve">Como usuário gostaria de fazer Login </t>
+  </si>
+  <si>
+    <t>negociar requisito com professor</t>
+  </si>
+  <si>
+    <t>web service pronto</t>
+  </si>
+  <si>
+    <t>so um bool no banco</t>
+  </si>
+  <si>
+    <t>faltam duas msgs de erro para o usuario. Login unico e e-mail unico</t>
+  </si>
+  <si>
+    <t>falta visual</t>
+  </si>
+  <si>
+    <t>Não informado</t>
+  </si>
+  <si>
+    <t>Não iniciado</t>
   </si>
 </sst>
 </file>
@@ -278,8 +293,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -304,32 +329,42 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="17">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="16" builtinId="9" hidden="1"/>
+  <cellStyles count="27">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -353,9 +388,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B3:J47" totalsRowShown="0">
   <autoFilter ref="B3:J47">
     <filterColumn colId="6">
-      <filters>
-        <filter val="4"/>
-      </filters>
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
   <sortState ref="B5:J46">
@@ -641,39 +676,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="B1:J50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" customWidth="1"/>
-    <col min="3" max="3" width="101.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
-    <col min="7" max="7" width="6.28515625" customWidth="1"/>
-    <col min="10" max="10" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.83203125" customWidth="1"/>
+    <col min="2" max="2" width="4.1640625" customWidth="1"/>
+    <col min="3" max="3" width="101.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" customWidth="1"/>
+    <col min="10" max="10" width="32.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="2" spans="2:10" ht="18">
+      <c r="B2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="2:10">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -702,7 +738,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" hidden="1">
       <c r="B4">
         <v>3</v>
       </c>
@@ -723,7 +759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10">
       <c r="B5" s="3">
         <v>4</v>
       </c>
@@ -747,13 +783,13 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="J5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
       <c r="B6" s="3">
         <v>5</v>
       </c>
@@ -777,13 +813,13 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" hidden="1">
       <c r="B7">
         <v>6</v>
       </c>
@@ -804,7 +840,7 @@
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="8" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10">
       <c r="B8" s="3">
         <v>19</v>
       </c>
@@ -828,13 +864,13 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="J8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
       <c r="B9" s="3">
         <v>21</v>
       </c>
@@ -858,13 +894,13 @@
         <v>1</v>
       </c>
       <c r="I9">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="J9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" hidden="1">
       <c r="B10">
         <v>9</v>
       </c>
@@ -885,7 +921,7 @@
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="11" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10">
       <c r="B11" s="3">
         <v>22</v>
       </c>
@@ -909,13 +945,10 @@
         <v>1</v>
       </c>
       <c r="I11">
-        <v>80</v>
-      </c>
-      <c r="J11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" hidden="1">
       <c r="B12">
         <v>11</v>
       </c>
@@ -936,7 +969,7 @@
         <v>1.625</v>
       </c>
     </row>
-    <row r="13" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" hidden="1">
       <c r="B13">
         <v>13</v>
       </c>
@@ -957,7 +990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10">
       <c r="B14" s="3">
         <v>24</v>
       </c>
@@ -981,13 +1014,10 @@
         <v>1</v>
       </c>
       <c r="I14">
-        <v>80</v>
-      </c>
-      <c r="J14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" hidden="1">
       <c r="B15">
         <v>15</v>
       </c>
@@ -1008,7 +1038,7 @@
         <v>0.61904761904761907</v>
       </c>
     </row>
-    <row r="16" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" hidden="1">
       <c r="B16">
         <v>16</v>
       </c>
@@ -1029,7 +1059,7 @@
         <v>1.625</v>
       </c>
     </row>
-    <row r="17" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10">
       <c r="B17" s="3">
         <v>25</v>
       </c>
@@ -1053,10 +1083,13 @@
         <v>1</v>
       </c>
       <c r="I17">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="J17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
       <c r="B18" s="3">
         <v>26</v>
       </c>
@@ -1083,7 +1116,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10">
       <c r="B19" s="3">
         <v>27</v>
       </c>
@@ -1110,7 +1143,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10">
       <c r="B20" s="3">
         <v>29</v>
       </c>
@@ -1134,13 +1167,10 @@
         <v>1</v>
       </c>
       <c r="I20">
-        <v>80</v>
-      </c>
-      <c r="J20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
       <c r="B21" s="3">
         <v>33</v>
       </c>
@@ -1167,7 +1197,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10">
       <c r="B22" s="3">
         <v>35</v>
       </c>
@@ -1191,13 +1221,13 @@
         <v>1</v>
       </c>
       <c r="I22">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="J22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" hidden="1">
       <c r="B23">
         <v>23</v>
       </c>
@@ -1218,7 +1248,7 @@
         <v>1.6666666666666667</v>
       </c>
     </row>
-    <row r="24" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10">
       <c r="B24" s="4">
         <v>17</v>
       </c>
@@ -1241,8 +1271,11 @@
       <c r="H24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
       <c r="B25" s="4">
         <v>18</v>
       </c>
@@ -1265,8 +1298,11 @@
       <c r="H25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
       <c r="B26" s="4">
         <v>20</v>
       </c>
@@ -1289,8 +1325,11 @@
       <c r="H26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
       <c r="B27" s="4">
         <v>30</v>
       </c>
@@ -1313,8 +1352,14 @@
       <c r="H27">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <v>50</v>
+      </c>
+      <c r="J27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
       <c r="B28" s="4">
         <v>31</v>
       </c>
@@ -1337,8 +1382,14 @@
       <c r="H28">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <v>50</v>
+      </c>
+      <c r="J28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
       <c r="B29" s="4">
         <v>39</v>
       </c>
@@ -1361,8 +1412,11 @@
       <c r="H29">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
       <c r="B30" s="4">
         <v>41</v>
       </c>
@@ -1385,8 +1439,11 @@
       <c r="H30">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
       <c r="B31" s="4">
         <v>43</v>
       </c>
@@ -1409,8 +1466,11 @@
       <c r="H31">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10">
       <c r="B32">
         <v>7</v>
       </c>
@@ -1433,32 +1493,41 @@
       <c r="H32">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="8">
-        <v>8</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>12</v>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33">
+        <v>37</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E33">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F33">
         <v>8</v>
       </c>
       <c r="G33">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="I33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" hidden="1">
       <c r="B34">
         <v>34</v>
       </c>
@@ -1479,93 +1548,102 @@
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="8">
-        <v>10</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>14</v>
+    <row r="35" spans="2:10">
+      <c r="B35">
+        <v>38</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F35">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G35">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H35">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="8">
-        <v>14</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>17</v>
+        <v>3</v>
+      </c>
+      <c r="I35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36">
+        <v>40</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E36">
         <v>5</v>
       </c>
       <c r="F36">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G36">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="8">
-        <v>28</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>28</v>
+        <v>3</v>
+      </c>
+      <c r="I36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37">
+        <v>42</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F37">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G37">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H37">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="8">
-        <v>32</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>32</v>
+        <v>3</v>
+      </c>
+      <c r="J37" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="6">
+        <v>8</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D38" t="s">
         <v>10</v>
       </c>
       <c r="E38">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F38">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G38">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
@@ -1574,104 +1652,119 @@
       <c r="H38">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B39">
-        <v>37</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>34</v>
+      <c r="J38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="6">
+        <v>10</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F39">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G39">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B40">
-        <v>38</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>35</v>
+        <v>4</v>
+      </c>
+      <c r="J39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="6">
+        <v>14</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40">
         <v>5</v>
       </c>
       <c r="F40">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G40">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B41">
-        <v>40</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>36</v>
+        <v>4</v>
+      </c>
+      <c r="J40" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="6">
+        <v>28</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F41">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G41">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B42">
-        <v>42</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>37</v>
+        <v>4</v>
+      </c>
+      <c r="J41" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" s="6">
+        <v>32</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F42">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G42">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="J42" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" hidden="1">
       <c r="B43">
         <v>44</v>
       </c>
@@ -1692,11 +1785,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="8">
+    <row r="44" spans="2:10">
+      <c r="B44" s="6">
         <v>45</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D44" t="s">
@@ -1715,8 +1808,11 @@
       <c r="H44">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J44" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" hidden="1">
       <c r="B45">
         <v>46</v>
       </c>
@@ -1737,12 +1833,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" s="8">
+    <row r="46" spans="2:10">
+      <c r="B46" s="6">
         <v>47</v>
       </c>
-      <c r="C46" s="8" t="s">
-        <v>50</v>
+      <c r="C46" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="D46" t="s">
         <v>10</v>
@@ -1760,13 +1856,16 @@
       <c r="H46">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I46">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" hidden="1">
       <c r="B47">
         <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D47" t="s">
         <v>9</v>
@@ -1782,17 +1881,17 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C50" s="9"/>
+    <row r="50" spans="3:3">
+      <c r="C50" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/Trunk/Doc/Product BackLog.xlsx
+++ b/Trunk/Doc/Product BackLog.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="23913"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14780"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="57">
   <si>
     <t>#</t>
   </si>
@@ -171,18 +171,12 @@
     <t xml:space="preserve">Como usuário gostaria de fazer Login </t>
   </si>
   <si>
-    <t>negociar requisito com professor</t>
-  </si>
-  <si>
     <t>web service pronto</t>
   </si>
   <si>
     <t>so um bool no banco</t>
   </si>
   <si>
-    <t>faltam duas msgs de erro para o usuario. Login unico e e-mail unico</t>
-  </si>
-  <si>
     <t>falta visual</t>
   </si>
   <si>
@@ -190,6 +184,15 @@
   </si>
   <si>
     <t>Não iniciado</t>
+  </si>
+  <si>
+    <t>visual a ser revisado</t>
+  </si>
+  <si>
+    <t>resolver problema de mapeamento</t>
+  </si>
+  <si>
+    <t>falta upload da foto da bicicleta</t>
   </si>
 </sst>
 </file>
@@ -339,32 +342,32 @@
     </xf>
   </cellXfs>
   <cellStyles count="27">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -676,27 +679,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="B1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.83203125" customWidth="1"/>
-    <col min="2" max="2" width="4.1640625" customWidth="1"/>
-    <col min="3" max="3" width="101.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="6.33203125" customWidth="1"/>
-    <col min="10" max="10" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.85546875" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" customWidth="1"/>
+    <col min="3" max="3" width="101.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" customWidth="1"/>
+    <col min="10" max="10" width="32.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="2" spans="2:10" ht="18">
+    <row r="1" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
@@ -709,7 +711,7 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -738,7 +740,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="2:10" hidden="1">
+    <row r="4" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>3</v>
       </c>
@@ -759,7 +761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>4</v>
       </c>
@@ -786,10 +788,10 @@
         <v>50</v>
       </c>
       <c r="J5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>5</v>
       </c>
@@ -816,10 +818,10 @@
         <v>50</v>
       </c>
       <c r="J6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" hidden="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>6</v>
       </c>
@@ -840,7 +842,7 @@
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>19</v>
       </c>
@@ -867,10 +869,10 @@
         <v>50</v>
       </c>
       <c r="J8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>21</v>
       </c>
@@ -897,10 +899,10 @@
         <v>10</v>
       </c>
       <c r="J9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" hidden="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>9</v>
       </c>
@@ -921,7 +923,7 @@
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>22</v>
       </c>
@@ -948,7 +950,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="2:10" hidden="1">
+    <row r="12" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>11</v>
       </c>
@@ -969,7 +971,7 @@
         <v>1.625</v>
       </c>
     </row>
-    <row r="13" spans="2:10" hidden="1">
+    <row r="13" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>13</v>
       </c>
@@ -990,7 +992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>24</v>
       </c>
@@ -1017,7 +1019,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="2:10" hidden="1">
+    <row r="15" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>15</v>
       </c>
@@ -1038,7 +1040,7 @@
         <v>0.61904761904761907</v>
       </c>
     </row>
-    <row r="16" spans="2:10" hidden="1">
+    <row r="16" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>16</v>
       </c>
@@ -1059,7 +1061,7 @@
         <v>1.625</v>
       </c>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <v>25</v>
       </c>
@@ -1083,13 +1085,10 @@
         <v>1</v>
       </c>
       <c r="I17">
-        <v>90</v>
-      </c>
-      <c r="J17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>26</v>
       </c>
@@ -1116,7 +1115,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <v>27</v>
       </c>
@@ -1143,7 +1142,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <v>29</v>
       </c>
@@ -1170,7 +1169,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <v>33</v>
       </c>
@@ -1194,10 +1193,13 @@
         <v>1</v>
       </c>
       <c r="I21">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10">
+        <v>80</v>
+      </c>
+      <c r="J21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <v>35</v>
       </c>
@@ -1224,10 +1226,10 @@
         <v>50</v>
       </c>
       <c r="J22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" hidden="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>23</v>
       </c>
@@ -1248,7 +1250,7 @@
         <v>1.6666666666666667</v>
       </c>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="4">
         <v>17</v>
       </c>
@@ -1275,7 +1277,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="4">
         <v>18</v>
       </c>
@@ -1302,7 +1304,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="4">
         <v>20</v>
       </c>
@@ -1326,10 +1328,10 @@
         <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="4">
         <v>30</v>
       </c>
@@ -1353,13 +1355,13 @@
         <v>2</v>
       </c>
       <c r="I27">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="J27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="4">
         <v>31</v>
       </c>
@@ -1383,13 +1385,13 @@
         <v>2</v>
       </c>
       <c r="I28">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="J28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="4">
         <v>39</v>
       </c>
@@ -1413,10 +1415,10 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="4">
         <v>41</v>
       </c>
@@ -1440,10 +1442,10 @@
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="4">
         <v>43</v>
       </c>
@@ -1467,10 +1469,10 @@
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>7</v>
       </c>
@@ -1494,13 +1496,13 @@
         <v>3</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="J32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>37</v>
       </c>
@@ -1527,7 +1529,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:10" hidden="1">
+    <row r="34" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>34</v>
       </c>
@@ -1548,7 +1550,7 @@
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>38</v>
       </c>
@@ -1575,7 +1577,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>40</v>
       </c>
@@ -1602,7 +1604,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>42</v>
       </c>
@@ -1626,10 +1628,10 @@
         <v>3</v>
       </c>
       <c r="J37" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="6">
         <v>8</v>
       </c>
@@ -1652,11 +1654,14 @@
       <c r="H38">
         <v>4</v>
       </c>
+      <c r="I38">
+        <v>90</v>
+      </c>
       <c r="J38" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="6">
         <v>10</v>
       </c>
@@ -1680,10 +1685,10 @@
         <v>4</v>
       </c>
       <c r="J39" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="6">
         <v>14</v>
       </c>
@@ -1707,10 +1712,10 @@
         <v>4</v>
       </c>
       <c r="J40" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="6">
         <v>28</v>
       </c>
@@ -1733,11 +1738,14 @@
       <c r="H41">
         <v>4</v>
       </c>
+      <c r="I41">
+        <v>50</v>
+      </c>
       <c r="J41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="6">
         <v>32</v>
       </c>
@@ -1760,11 +1768,11 @@
       <c r="H42">
         <v>4</v>
       </c>
-      <c r="J42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" hidden="1">
+      <c r="I42">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>44</v>
       </c>
@@ -1785,7 +1793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="6">
         <v>45</v>
       </c>
@@ -1809,10 +1817,10 @@
         <v>4</v>
       </c>
       <c r="J44" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" hidden="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>46</v>
       </c>
@@ -1833,7 +1841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="6">
         <v>47</v>
       </c>
@@ -1860,7 +1868,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:10" hidden="1">
+    <row r="47" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>48</v>
       </c>
@@ -1881,7 +1889,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="50" spans="3:3">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C50" s="7"/>
     </row>
   </sheetData>

--- a/Trunk/Doc/Product BackLog.xlsx
+++ b/Trunk/Doc/Product BackLog.xlsx
@@ -1,28 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Douglas\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="61">
   <si>
     <t>#</t>
   </si>
@@ -42,9 +47,6 @@
     <t>Product BackLog</t>
   </si>
   <si>
-    <t>Como ciclista quero informar meu status após um evento</t>
-  </si>
-  <si>
     <t>Como ciclista quero qualificar a rota que participei</t>
   </si>
   <si>
@@ -69,9 +71,6 @@
     <t>Como usuário gostaria de poder excluir imagens relativas a rota</t>
   </si>
   <si>
-    <t>Como ciclista gostaria de poder adicionar pontos de referência à rota</t>
-  </si>
-  <si>
     <t>Como ciclista gostaria de poder excluir pontos de referência da rota</t>
   </si>
   <si>
@@ -135,9 +134,6 @@
     <t>Como usuário gostaria de poder qualificar uma rota que participei - Quanto ao nível de dificuldade</t>
   </si>
   <si>
-    <t>Como usuário gostaria de poder qualificar uma rota que participei - Quanto a duração média da rota</t>
-  </si>
-  <si>
     <t>Como usuário gostaria de poder visualizar o tempo atual do evento</t>
   </si>
   <si>
@@ -171,35 +167,56 @@
     <t xml:space="preserve">Como usuário gostaria de fazer Login </t>
   </si>
   <si>
-    <t>web service pronto</t>
-  </si>
-  <si>
-    <t>so um bool no banco</t>
-  </si>
-  <si>
-    <t>falta visual</t>
-  </si>
-  <si>
-    <t>Não informado</t>
-  </si>
-  <si>
     <t>Não iniciado</t>
   </si>
   <si>
-    <t>visual a ser revisado</t>
-  </si>
-  <si>
-    <t>resolver problema de mapeamento</t>
-  </si>
-  <si>
-    <t>falta upload da foto da bicicleta</t>
+    <t>Foi negociado que isto ficará apenas no mobile.</t>
+  </si>
+  <si>
+    <t>Não iniciado, e está dependente de criar a funcionalidade de cadastrar imagem para um ponto de referencia (pelo celular).</t>
+  </si>
+  <si>
+    <t>Como usuário gostaria de convidar um amigo para o Evento.</t>
+  </si>
+  <si>
+    <t>Como usuário gostaria de visualizar todos os meu contatos.</t>
+  </si>
+  <si>
+    <t>Como usuário gostaria fazer um comentário do evento que participei.</t>
+  </si>
+  <si>
+    <t>Como usuário gostaria de buscar eventos próximos e me associar a um.</t>
+  </si>
+  <si>
+    <t>Como usuário gostaria de buscar amigos e adicionar aos meu contatos.</t>
+  </si>
+  <si>
+    <t>Como usuário gostaria de visualizar todos os comentários do evento.</t>
+  </si>
+  <si>
+    <t>* Verificar se tem confirmação de senha.</t>
+  </si>
+  <si>
+    <t>Ao cadastrar uma rota, verificar o tempo de início e fim da mesma e de todas as rotas subsequentes a esta. Fazer a soma dos tempos e extrair a média.</t>
+  </si>
+  <si>
+    <t>O sistema irá calcular a média de duração da Rota com base nas rotas feitas a partir da original automaticamente.</t>
+  </si>
+  <si>
+    <t>Igual ao da web.</t>
+  </si>
+  <si>
+    <t>4 ; 5</t>
+  </si>
+  <si>
+    <t>2 ; 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,14 +244,6 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -325,7 +334,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -333,7 +342,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -342,32 +361,32 @@
     </xf>
   </cellXfs>
   <cellStyles count="27">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -388,17 +407,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B3:J47" totalsRowShown="0">
-  <autoFilter ref="B3:J47">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
-  <sortState ref="B5:J46">
-    <sortCondition ref="H3:H47"/>
-  </sortState>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B3:J49" totalsRowShown="0">
+  <autoFilter ref="B3:J49"/>
   <tableColumns count="9">
     <tableColumn id="1" name="#"/>
     <tableColumn id="2" name="User History"/>
@@ -671,7 +681,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -679,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J50"/>
+  <dimension ref="B1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,17 +709,17 @@
   <sheetData>
     <row r="1" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
+      <c r="B2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -719,7 +729,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
@@ -731,21 +741,21 @@
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -760,16 +770,22 @@
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
         <v>4</v>
       </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>100</v>
+      </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -785,47 +801,38 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>50</v>
-      </c>
-      <c r="J5" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>8</v>
       </c>
       <c r="G6">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>4</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>50</v>
-      </c>
-      <c r="J6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D7" t="s">
@@ -840,246 +847,261 @@
       <c r="G7">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
         <v>2.6666666666666665</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G8">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>2.5</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>100</v>
+      </c>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>50</v>
-      </c>
-      <c r="J8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>24</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>100</v>
+      </c>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13">
         <v>21</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="F13">
+        <v>13</v>
+      </c>
+      <c r="G13">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>0.61904761904761907</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <v>13</v>
+      </c>
+      <c r="G14">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.625</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>25</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>5</v>
-      </c>
-      <c r="G9">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>2.5</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>10</v>
-      </c>
-      <c r="J9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>8</v>
-      </c>
-      <c r="G10">
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>8</v>
+      </c>
+      <c r="G15">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.6</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>95</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>26</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>8</v>
+      </c>
+      <c r="G16">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
         <v>2.6666666666666665</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
-        <v>22</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>8</v>
-      </c>
-      <c r="G11">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12">
-        <v>8</v>
-      </c>
-      <c r="F12">
-        <v>13</v>
-      </c>
-      <c r="G12">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.625</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13">
-        <v>5</v>
-      </c>
-      <c r="F13">
-        <v>5</v>
-      </c>
-      <c r="G13">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
-        <v>24</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>5</v>
-      </c>
-      <c r="G14">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15">
-        <v>21</v>
-      </c>
-      <c r="F15">
-        <v>13</v>
-      </c>
-      <c r="G15">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>0.61904761904761907</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>16</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16">
-        <v>8</v>
-      </c>
-      <c r="F16">
-        <v>13</v>
-      </c>
-      <c r="G16">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.625</v>
-      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>100</v>
+      </c>
+      <c r="J16" s="7"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
-        <v>25</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G17">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -1087,26 +1109,27 @@
       <c r="I17">
         <v>100</v>
       </c>
+      <c r="J17" s="7"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
-        <v>26</v>
-      </c>
-      <c r="C18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E18">
         <v>3</v>
       </c>
       <c r="F18">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G18">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>2.6666666666666665</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -1117,23 +1140,23 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G19">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -1144,373 +1167,371 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E20">
         <v>3</v>
       </c>
       <c r="F20">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G20">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="3">
-        <v>33</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21">
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>17</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="4">
+        <v>5</v>
+      </c>
+      <c r="F22" s="4">
+        <v>8</v>
+      </c>
+      <c r="G22" s="4">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.6</v>
+      </c>
+      <c r="H22" s="4">
         <v>2</v>
       </c>
-      <c r="F21">
-        <v>8</v>
-      </c>
-      <c r="G21">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>4</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>80</v>
-      </c>
-      <c r="J21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="3">
-        <v>35</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>8</v>
-      </c>
-      <c r="G22">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>50</v>
-      </c>
-      <c r="J22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>23</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>5</v>
-      </c>
-      <c r="G23">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.6666666666666667</v>
-      </c>
+      <c r="I22" s="4">
+        <v>100</v>
+      </c>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="4">
+        <v>18</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="4">
+        <v>3</v>
+      </c>
+      <c r="F23" s="4">
+        <v>3</v>
+      </c>
+      <c r="G23" s="4">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1</v>
+      </c>
+      <c r="H23" s="4">
+        <v>2</v>
+      </c>
+      <c r="I23" s="4">
+        <v>100</v>
+      </c>
+      <c r="J23" s="4"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="4">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24">
-        <v>5</v>
-      </c>
-      <c r="F24">
-        <v>8</v>
-      </c>
-      <c r="G24">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.6</v>
-      </c>
-      <c r="H24">
+      <c r="D24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="4">
+        <v>3</v>
+      </c>
+      <c r="F24" s="4">
+        <v>3</v>
+      </c>
+      <c r="G24" s="4">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1</v>
+      </c>
+      <c r="H24" s="4">
         <v>2</v>
       </c>
-      <c r="I24">
-        <v>100</v>
-      </c>
+      <c r="I24" s="4">
+        <v>100</v>
+      </c>
+      <c r="J24" s="4"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="4">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>3</v>
-      </c>
-      <c r="G25">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1</v>
-      </c>
-      <c r="H25">
+        <v>29</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="4">
+        <v>3</v>
+      </c>
+      <c r="F25" s="4">
+        <v>3</v>
+      </c>
+      <c r="G25" s="4">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1</v>
+      </c>
+      <c r="H25" s="4">
         <v>2</v>
       </c>
-      <c r="I25">
-        <v>100</v>
-      </c>
+      <c r="I25" s="4">
+        <v>100</v>
+      </c>
+      <c r="J25" s="4"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="4">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>3</v>
-      </c>
-      <c r="G26">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1</v>
-      </c>
-      <c r="H26">
+        <v>28</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="4">
+        <v>3</v>
+      </c>
+      <c r="F26" s="4">
         <v>2</v>
       </c>
-      <c r="J26" t="s">
-        <v>52</v>
-      </c>
+      <c r="G26" s="4">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H26" s="4">
+        <v>2</v>
+      </c>
+      <c r="I26" s="4">
+        <v>100</v>
+      </c>
+      <c r="J26" s="4"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="4">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>3</v>
-      </c>
-      <c r="G27">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1</v>
-      </c>
-      <c r="H27">
+        <v>33</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="4">
+        <v>5</v>
+      </c>
+      <c r="F27" s="4">
+        <v>8</v>
+      </c>
+      <c r="G27" s="4">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.6</v>
+      </c>
+      <c r="H27" s="4">
         <v>2</v>
       </c>
-      <c r="I27">
-        <v>90</v>
-      </c>
-      <c r="J27" t="s">
-        <v>54</v>
-      </c>
+      <c r="I27" s="4">
+        <v>100</v>
+      </c>
+      <c r="J27" s="4"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="4">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="4">
+        <v>5</v>
+      </c>
+      <c r="F28" s="4">
+        <v>8</v>
+      </c>
+      <c r="G28" s="4">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.6</v>
+      </c>
+      <c r="H28" s="4">
+        <v>2</v>
+      </c>
+      <c r="I28" s="4">
+        <v>100</v>
+      </c>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="2:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="B29" s="4">
+        <v>43</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="4">
+        <v>5</v>
+      </c>
+      <c r="F29" s="4">
+        <v>8</v>
+      </c>
+      <c r="G29" s="4">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.6</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I29" s="4">
+        <v>0</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>7</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>2</v>
-      </c>
-      <c r="G28">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H28">
-        <v>2</v>
-      </c>
-      <c r="I28">
-        <v>90</v>
-      </c>
-      <c r="J28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="4">
-        <v>39</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29">
-        <v>5</v>
-      </c>
-      <c r="F29">
-        <v>8</v>
-      </c>
-      <c r="G29">
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30">
+        <v>13</v>
+      </c>
+      <c r="F30">
+        <v>13</v>
+      </c>
+      <c r="G30">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30">
+        <v>100</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>37</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
+      </c>
+      <c r="F31">
+        <v>8</v>
+      </c>
+      <c r="G31">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
         <v>1.6</v>
       </c>
-      <c r="H29">
-        <v>2</v>
-      </c>
-      <c r="J29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="4">
-        <v>41</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30">
-        <v>5</v>
-      </c>
-      <c r="F30">
-        <v>8</v>
-      </c>
-      <c r="G30">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.6</v>
-      </c>
-      <c r="H30">
-        <v>2</v>
-      </c>
-      <c r="J30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="4">
-        <v>43</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31">
-        <v>5</v>
-      </c>
-      <c r="F31">
-        <v>8</v>
-      </c>
-      <c r="G31">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.6</v>
-      </c>
       <c r="H31">
-        <v>2</v>
-      </c>
-      <c r="J31" t="s">
-        <v>52</v>
+        <v>3</v>
+      </c>
+      <c r="I31">
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E32">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F32">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G32">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H32">
         <v>3</v>
       </c>
       <c r="I32">
-        <v>90</v>
-      </c>
-      <c r="J32" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E33">
         <v>5</v>
@@ -1529,87 +1550,100 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34">
-        <v>34</v>
-      </c>
-      <c r="C34" t="s">
-        <v>33</v>
+        <v>42</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F34">
         <v>8</v>
       </c>
       <c r="G34">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>2.6666666666666665</v>
+        <v>1.6</v>
+      </c>
+      <c r="H34">
+        <v>3</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <v>38</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>35</v>
+      <c r="B35" s="6">
+        <v>8</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="D35" t="s">
         <v>9</v>
       </c>
       <c r="E35">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F35">
         <v>8</v>
       </c>
       <c r="G35">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I35">
         <v>100</v>
       </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <v>40</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>36</v>
+      <c r="J35" s="7"/>
+    </row>
+    <row r="36" spans="2:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="B36" s="6">
+        <v>10</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="D36" t="s">
         <v>9</v>
       </c>
       <c r="E36">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G36">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.6</v>
-      </c>
-      <c r="H36">
-        <v>3</v>
+        <v>1.5</v>
+      </c>
+      <c r="H36" t="s">
+        <v>59</v>
       </c>
       <c r="I36">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37">
-        <v>42</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>37</v>
+      <c r="B37" s="6">
+        <v>14</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="D37" t="s">
         <v>9</v>
@@ -1618,85 +1652,87 @@
         <v>5</v>
       </c>
       <c r="F37">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G37">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.6</v>
-      </c>
-      <c r="H37">
-        <v>3</v>
-      </c>
-      <c r="J37" t="s">
-        <v>52</v>
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>59</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="6">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E38">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F38">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G38">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H38">
         <v>4</v>
       </c>
       <c r="I38">
-        <v>90</v>
-      </c>
-      <c r="J38" t="s">
-        <v>55</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="J38" s="7"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="6">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F39">
         <v>3</v>
       </c>
       <c r="G39">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H39">
         <v>4</v>
       </c>
-      <c r="J39" t="s">
-        <v>52</v>
-      </c>
+      <c r="I39">
+        <v>100</v>
+      </c>
+      <c r="J39" s="7"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="6">
-        <v>14</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>17</v>
+      <c r="B40">
+        <v>44</v>
+      </c>
+      <c r="C40" t="s">
+        <v>35</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E40">
         <v>5</v>
@@ -1707,199 +1743,243 @@
       <c r="G40">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
         <v>1</v>
-      </c>
-      <c r="H40">
-        <v>4</v>
-      </c>
-      <c r="J40" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="6">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E41">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F41">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G41">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.5</v>
-      </c>
-      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>59</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>46</v>
+      </c>
+      <c r="C42" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42">
+        <v>8</v>
+      </c>
+      <c r="F42">
+        <v>8</v>
+      </c>
+      <c r="G42">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="6">
+        <v>47</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43">
+        <v>5</v>
+      </c>
+      <c r="F43">
+        <v>5</v>
+      </c>
+      <c r="G43">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1</v>
+      </c>
+      <c r="H43">
         <v>4</v>
       </c>
-      <c r="I41">
+      <c r="I43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="8">
+        <v>47</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="8">
+        <v>5</v>
+      </c>
+      <c r="F44" s="8">
+        <v>5</v>
+      </c>
+      <c r="G44" s="8">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1</v>
+      </c>
+      <c r="H44" s="8">
+        <v>5</v>
+      </c>
+      <c r="I44" s="8"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="8">
+        <v>47</v>
+      </c>
+      <c r="C45" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="J41" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="6">
-        <v>32</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D42" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42">
-        <v>3</v>
-      </c>
-      <c r="F42">
-        <v>3</v>
-      </c>
-      <c r="G42">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1</v>
-      </c>
-      <c r="H42">
-        <v>4</v>
-      </c>
-      <c r="I42">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B43">
-        <v>44</v>
-      </c>
-      <c r="C43" t="s">
-        <v>38</v>
-      </c>
-      <c r="D43" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43">
-        <v>5</v>
-      </c>
-      <c r="F43">
-        <v>5</v>
-      </c>
-      <c r="G43">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B44" s="6">
-        <v>45</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D44" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44">
-        <v>5</v>
-      </c>
-      <c r="F44">
-        <v>5</v>
-      </c>
-      <c r="G44">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1</v>
-      </c>
-      <c r="H44">
-        <v>4</v>
-      </c>
-      <c r="J44" t="s">
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="8">
+        <v>5</v>
+      </c>
+      <c r="F45" s="8">
+        <v>5</v>
+      </c>
+      <c r="G45" s="10">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1</v>
+      </c>
+      <c r="H45" s="8">
+        <v>5</v>
+      </c>
+      <c r="I45" s="8"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="8">
+        <v>47</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="8">
+        <v>5</v>
+      </c>
+      <c r="F46" s="8">
+        <v>5</v>
+      </c>
+      <c r="G46" s="10">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1</v>
+      </c>
+      <c r="H46" s="8">
+        <v>5</v>
+      </c>
+      <c r="I46" s="8"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="8">
+        <v>47</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="8">
+        <v>5</v>
+      </c>
+      <c r="F47" s="8">
+        <v>5</v>
+      </c>
+      <c r="G47" s="10">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1</v>
+      </c>
+      <c r="H47" s="8">
+        <v>5</v>
+      </c>
+      <c r="I47" s="8"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="8">
+        <v>47</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="45" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B45">
-        <v>46</v>
-      </c>
-      <c r="C45" t="s">
-        <v>39</v>
-      </c>
-      <c r="D45" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45">
-        <v>8</v>
-      </c>
-      <c r="F45">
-        <v>8</v>
-      </c>
-      <c r="G45">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="6">
+      <c r="D48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="8">
+        <v>5</v>
+      </c>
+      <c r="F48" s="8">
+        <v>5</v>
+      </c>
+      <c r="G48" s="10">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1</v>
+      </c>
+      <c r="H48" s="8">
+        <v>6</v>
+      </c>
+      <c r="I48" s="8"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="8">
         <v>47</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46">
-        <v>5</v>
-      </c>
-      <c r="F46">
-        <v>5</v>
-      </c>
-      <c r="G46">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1</v>
-      </c>
-      <c r="H46">
-        <v>4</v>
-      </c>
-      <c r="I46">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B47">
-        <v>48</v>
-      </c>
-      <c r="C47" t="s">
-        <v>48</v>
-      </c>
-      <c r="D47" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47">
-        <v>8</v>
-      </c>
-      <c r="F47">
-        <v>5</v>
-      </c>
-      <c r="G47">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C50" s="7"/>
+      <c r="C49" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="8">
+        <v>5</v>
+      </c>
+      <c r="F49" s="8">
+        <v>8</v>
+      </c>
+      <c r="G49" s="10">
+        <v>3</v>
+      </c>
+      <c r="H49" s="8">
+        <v>5</v>
+      </c>
+      <c r="I49" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/Trunk/Doc/Product BackLog.xlsx
+++ b/Trunk/Doc/Product BackLog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Douglas\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projeto Final\fusioness\Trunk\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -408,7 +408,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B3:J49" totalsRowShown="0">
-  <autoFilter ref="B3:J49"/>
+  <autoFilter ref="B3:J49">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Mobile"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="9">
     <tableColumn id="1" name="#"/>
     <tableColumn id="2" name="User History"/>
@@ -691,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,7 +756,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>4</v>
       </c>
@@ -777,7 +783,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>5</v>
       </c>
@@ -827,8 +833,11 @@
       <c r="H6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>19</v>
       </c>
@@ -855,7 +864,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>21</v>
       </c>
@@ -904,7 +913,7 @@
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>22</v>
       </c>
@@ -951,8 +960,11 @@
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>24</v>
       </c>
@@ -1000,6 +1012,9 @@
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
         <v>0.61904761904761907</v>
       </c>
+      <c r="I13">
+        <v>100</v>
+      </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14">
@@ -1024,8 +1039,11 @@
       <c r="H14">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <v>25</v>
       </c>
@@ -1055,7 +1073,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>26</v>
       </c>
@@ -1083,7 +1101,7 @@
       </c>
       <c r="J16" s="7"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <v>27</v>
       </c>
@@ -1111,7 +1129,7 @@
       </c>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>29</v>
       </c>
@@ -1138,7 +1156,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <v>33</v>
       </c>
@@ -1165,7 +1183,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <v>35</v>
       </c>
@@ -1212,8 +1230,11 @@
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
         <v>1.6666666666666667</v>
       </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="4">
         <v>17</v>
       </c>
@@ -1241,7 +1262,7 @@
       </c>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="4">
         <v>18</v>
       </c>
@@ -1269,7 +1290,7 @@
       </c>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="4">
         <v>20</v>
       </c>
@@ -1297,7 +1318,7 @@
       </c>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="4">
         <v>30</v>
       </c>
@@ -1325,7 +1346,7 @@
       </c>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" s="4">
         <v>31</v>
       </c>
@@ -1353,7 +1374,7 @@
       </c>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" s="4">
         <v>39</v>
       </c>
@@ -1381,7 +1402,7 @@
       </c>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" s="4">
         <v>41</v>
       </c>
@@ -1409,7 +1430,7 @@
       </c>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="2:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" s="4">
         <v>43</v>
       </c>
@@ -1439,7 +1460,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>7</v>
       </c>
@@ -1574,13 +1595,13 @@
         <v>3</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35" s="6">
         <v>8</v>
       </c>
@@ -1608,7 +1629,7 @@
       </c>
       <c r="J35" s="7"/>
     </row>
-    <row r="36" spans="2:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36" s="6">
         <v>10</v>
       </c>
@@ -1638,7 +1659,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" s="6">
         <v>14</v>
       </c>
@@ -1668,7 +1689,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6">
         <v>28</v>
       </c>
@@ -1696,7 +1717,7 @@
       </c>
       <c r="J38" s="7"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" s="6">
         <v>32</v>
       </c>
@@ -1745,7 +1766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" s="6">
         <v>45</v>
       </c>
@@ -1796,7 +1817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43" s="6">
         <v>47</v>
       </c>
@@ -1846,7 +1867,9 @@
       <c r="H44" s="8">
         <v>5</v>
       </c>
-      <c r="I44" s="8"/>
+      <c r="I44" s="8">
+        <v>100</v>
+      </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="8">
@@ -1871,7 +1894,9 @@
       <c r="H45" s="8">
         <v>5</v>
       </c>
-      <c r="I45" s="8"/>
+      <c r="I45" s="8">
+        <v>100</v>
+      </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="8">
@@ -1896,7 +1921,9 @@
       <c r="H46" s="8">
         <v>5</v>
       </c>
-      <c r="I46" s="8"/>
+      <c r="I46" s="8">
+        <v>100</v>
+      </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="8">
@@ -1921,7 +1948,9 @@
       <c r="H47" s="8">
         <v>5</v>
       </c>
-      <c r="I47" s="8"/>
+      <c r="I47" s="8">
+        <v>100</v>
+      </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" s="8">
@@ -1946,7 +1975,9 @@
       <c r="H48" s="8">
         <v>6</v>
       </c>
-      <c r="I48" s="8"/>
+      <c r="I48" s="8">
+        <v>80</v>
+      </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="8">
@@ -1970,7 +2001,9 @@
       <c r="H49" s="8">
         <v>5</v>
       </c>
-      <c r="I49" s="8"/>
+      <c r="I49" s="8">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Trunk/Doc/Product BackLog.xlsx
+++ b/Trunk/Doc/Product BackLog.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Douglas\Documents\fusioness\Trunk\Doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="14775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="53">
   <si>
     <t>#</t>
   </si>
@@ -79,9 +84,6 @@
   </si>
   <si>
     <t>Obs.</t>
-  </si>
-  <si>
-    <t>Não iniciado</t>
   </si>
   <si>
     <t>Como usuário gostaria de convidar um amigo para o Evento.</t>
@@ -294,14 +296,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -335,6 +337,9 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -351,9 +356,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -369,29 +371,14 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B3:J49" totalsRowShown="0">
-  <autoFilter ref="B3:J49">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Web"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="7">
-      <filters blank="1">
-        <filter val="0"/>
-        <filter val="80"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState ref="B4:J43">
-    <sortCondition ref="B3:B49"/>
-  </sortState>
+  <autoFilter ref="B3:J49"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="#" dataDxfId="1"/>
-    <tableColumn id="2" name="User History" dataDxfId="0"/>
+    <tableColumn id="1" name="#" dataDxfId="2"/>
+    <tableColumn id="2" name="User History" dataDxfId="1"/>
     <tableColumn id="3" name="Plataform"/>
     <tableColumn id="4" name="Story Point"/>
     <tableColumn id="5" name="Business Value"/>
-    <tableColumn id="6" name="ROI" dataDxfId="2">
+    <tableColumn id="6" name="ROI" dataDxfId="0">
       <calculatedColumnFormula>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" name="Sprint"/>
@@ -657,7 +644,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -668,7 +655,7 @@
   <dimension ref="B1:J50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,17 +675,17 @@
       <c r="C1"/>
     </row>
     <row r="2" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
+      <c r="B2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -729,7 +716,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -756,7 +743,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -783,12 +770,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -810,12 +797,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -838,12 +825,12 @@
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -857,6 +844,12 @@
       <c r="G8">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
         <v>2.6666666666666665</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -864,7 +857,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -880,7 +873,7 @@
         <v>1.5</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -892,7 +885,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
@@ -908,19 +901,19 @@
         <v>1.5</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -934,6 +927,9 @@
       <c r="G11">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
         <v>1</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
       </c>
       <c r="I11">
         <v>100</v>
@@ -944,7 +940,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
@@ -960,21 +956,19 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
@@ -989,16 +983,19 @@
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
         <v>0.61904761904761907</v>
       </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
       <c r="I13">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>11</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>34</v>
+      <c r="C14" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
@@ -1020,12 +1017,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>9</v>
@@ -1048,12 +1045,12 @@
       </c>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>13</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>9</v>
@@ -1076,12 +1073,12 @@
       </c>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>14</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>9</v>
@@ -1104,12 +1101,12 @@
       </c>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>15</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>9</v>
@@ -1132,12 +1129,12 @@
       </c>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>16</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>9</v>
@@ -1160,12 +1157,12 @@
       </c>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>17</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>9</v>
@@ -1188,7 +1185,7 @@
       </c>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>18</v>
       </c>
@@ -1208,13 +1205,15 @@
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="H21" s="2"/>
+      <c r="H21" s="2">
+        <v>5</v>
+      </c>
       <c r="I21" s="2">
         <v>100</v>
       </c>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>19</v>
       </c>
@@ -1242,11 +1241,11 @@
       </c>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>20</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -1270,11 +1269,11 @@
       </c>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <v>21</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1298,7 +1297,7 @@
       </c>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <v>22</v>
       </c>
@@ -1326,7 +1325,7 @@
       </c>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <v>23</v>
       </c>
@@ -1354,12 +1353,12 @@
       </c>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <v>24</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>9</v>
@@ -1382,12 +1381,12 @@
       </c>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <v>25</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>9</v>
@@ -1410,12 +1409,12 @@
       </c>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <v>26</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>9</v>
@@ -1438,12 +1437,12 @@
       </c>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <v>27</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>9</v>
@@ -1466,12 +1465,12 @@
       </c>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
         <v>28</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>8</v>
@@ -1494,12 +1493,12 @@
       </c>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
         <v>29</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>8</v>
@@ -1522,12 +1521,12 @@
       </c>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
         <v>30</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>8</v>
@@ -1550,12 +1549,12 @@
       </c>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
         <v>31</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>8</v>
@@ -1577,15 +1576,15 @@
         <v>100</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
         <v>32</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>9</v>
@@ -1608,12 +1607,12 @@
       </c>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
         <v>33</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>9</v>
@@ -1636,12 +1635,12 @@
       </c>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
         <v>34</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>9</v>
@@ -1664,12 +1663,12 @@
       </c>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
         <v>35</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>9</v>
@@ -1697,7 +1696,7 @@
         <v>36</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>9</v>
@@ -1713,19 +1712,19 @@
         <v>1.6</v>
       </c>
       <c r="H39" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I39" s="2">
         <v>0</v>
       </c>
       <c r="J39" s="3"/>
     </row>
-    <row r="40" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="2">
         <v>37</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>8</v>
@@ -1740,8 +1739,12 @@
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
         <v>1</v>
       </c>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
+      <c r="H40" s="2">
+        <v>6</v>
+      </c>
+      <c r="I40" s="2">
+        <v>100</v>
+      </c>
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
@@ -1749,7 +1752,7 @@
         <v>38</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>9</v>
@@ -1765,21 +1768,19 @@
         <v>1</v>
       </c>
       <c r="H41" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I41" s="2">
         <v>0</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="2">
         <v>39</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>8</v>
@@ -1794,16 +1795,20 @@
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
         <v>1</v>
       </c>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
+      <c r="H42" s="2">
+        <v>6</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0</v>
+      </c>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="2">
         <v>40</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>9</v>
@@ -1826,12 +1831,12 @@
       </c>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="2">
         <v>41</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>8</v>
@@ -1854,12 +1859,12 @@
       </c>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="2">
         <v>42</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>8</v>
@@ -1882,12 +1887,12 @@
       </c>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="2">
         <v>43</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>8</v>
@@ -1910,12 +1915,12 @@
       </c>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="2">
         <v>44</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>8</v>
@@ -1938,12 +1943,12 @@
       </c>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" s="2">
         <v>45</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>8</v>
@@ -1962,16 +1967,16 @@
         <v>6</v>
       </c>
       <c r="I48" s="2">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" s="2">
         <v>46</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>8</v>

--- a/Trunk/Doc/Product BackLog.xlsx
+++ b/Trunk/Doc/Product BackLog.xlsx
@@ -371,7 +371,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B3:J49" totalsRowShown="0">
-  <autoFilter ref="B3:J49"/>
+  <autoFilter ref="B3:J49">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="9">
     <tableColumn id="1" name="#" dataDxfId="2"/>
     <tableColumn id="2" name="User History" dataDxfId="1"/>
@@ -654,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,7 +722,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -743,7 +749,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -770,7 +776,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -797,7 +803,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -825,7 +831,7 @@
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>5</v>
       </c>
@@ -908,7 +914,7 @@
       </c>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>8</v>
       </c>
@@ -963,7 +969,7 @@
       </c>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>10</v>
       </c>
@@ -990,7 +996,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>11</v>
       </c>
@@ -1017,7 +1023,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>12</v>
       </c>
@@ -1045,7 +1051,7 @@
       </c>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>13</v>
       </c>
@@ -1073,7 +1079,7 @@
       </c>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>14</v>
       </c>
@@ -1101,7 +1107,7 @@
       </c>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>15</v>
       </c>
@@ -1129,7 +1135,7 @@
       </c>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>16</v>
       </c>
@@ -1157,7 +1163,7 @@
       </c>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>17</v>
       </c>
@@ -1185,7 +1191,7 @@
       </c>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>18</v>
       </c>
@@ -1213,7 +1219,7 @@
       </c>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>19</v>
       </c>
@@ -1241,7 +1247,7 @@
       </c>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>20</v>
       </c>
@@ -1269,7 +1275,7 @@
       </c>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <v>21</v>
       </c>
@@ -1297,7 +1303,7 @@
       </c>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <v>22</v>
       </c>
@@ -1325,7 +1331,7 @@
       </c>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <v>23</v>
       </c>
@@ -1353,7 +1359,7 @@
       </c>
       <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <v>24</v>
       </c>
@@ -1381,7 +1387,7 @@
       </c>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <v>25</v>
       </c>
@@ -1409,7 +1415,7 @@
       </c>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <v>26</v>
       </c>
@@ -1437,7 +1443,7 @@
       </c>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <v>27</v>
       </c>
@@ -1465,7 +1471,7 @@
       </c>
       <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
         <v>28</v>
       </c>
@@ -1493,7 +1499,7 @@
       </c>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
         <v>29</v>
       </c>
@@ -1521,7 +1527,7 @@
       </c>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
         <v>30</v>
       </c>
@@ -1549,7 +1555,7 @@
       </c>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
         <v>31</v>
       </c>
@@ -1579,7 +1585,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
         <v>32</v>
       </c>
@@ -1607,7 +1613,7 @@
       </c>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
         <v>33</v>
       </c>
@@ -1635,7 +1641,7 @@
       </c>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
         <v>34</v>
       </c>
@@ -1663,7 +1669,7 @@
       </c>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
         <v>35</v>
       </c>
@@ -1719,7 +1725,7 @@
       </c>
       <c r="J39" s="3"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" s="2">
         <v>37</v>
       </c>
@@ -1803,7 +1809,7 @@
       </c>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43" s="2">
         <v>40</v>
       </c>
@@ -1831,7 +1837,7 @@
       </c>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" s="2">
         <v>41</v>
       </c>
@@ -1859,7 +1865,7 @@
       </c>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45" s="2">
         <v>42</v>
       </c>
@@ -1887,7 +1893,7 @@
       </c>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46" s="2">
         <v>43</v>
       </c>
@@ -1915,7 +1921,7 @@
       </c>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" s="2">
         <v>44</v>
       </c>
@@ -1943,7 +1949,7 @@
       </c>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" s="2">
         <v>45</v>
       </c>
@@ -1971,7 +1977,7 @@
       </c>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B49" s="2">
         <v>46</v>
       </c>

--- a/Trunk/Doc/Product BackLog.xlsx
+++ b/Trunk/Doc/Product BackLog.xlsx
@@ -5,14 +5,15 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Douglas\Documents\fusioness\Trunk\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Estudo\Bitbucket\fusioness\Trunk\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="14775"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="14775" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Plan1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="58">
   <si>
     <t>#</t>
   </si>
@@ -186,6 +187,21 @@
   </si>
   <si>
     <t>Como usuário gostaria de fazer Login.</t>
+  </si>
+  <si>
+    <t>quando responde um convite de evento, este convite some da lista de "Convites de Eventos"</t>
+  </si>
+  <si>
+    <t>não tem busca de evento</t>
+  </si>
+  <si>
+    <t>na busca de usuários (em contatos) refazer a consulta com AJAX</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -225,7 +241,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -235,6 +251,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,7 +308,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -299,6 +321,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -307,32 +333,32 @@
     </xf>
   </cellXfs>
   <cellStyles count="27">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -371,13 +397,10 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B3:J49" totalsRowShown="0">
-  <autoFilter ref="B3:J49">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="0"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B3:J49"/>
+  <sortState ref="B4:J49">
+    <sortCondition descending="1" ref="D3:D49"/>
+  </sortState>
   <tableColumns count="9">
     <tableColumn id="1" name="#" dataDxfId="2"/>
     <tableColumn id="2" name="User History" dataDxfId="1"/>
@@ -660,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C42"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,17 +704,17 @@
       <c r="C1"/>
     </row>
     <row r="2" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="B2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -722,7 +745,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -749,7 +772,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -776,107 +799,109 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F6">
         <v>8</v>
       </c>
       <c r="G6">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>2.6666666666666665</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I6">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
       <c r="E7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G7">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G8">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>2.6666666666666665</v>
+        <v>1.5</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I8">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G9">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>6</v>
@@ -888,259 +913,262 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10">
+        <v>34</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2">
+        <v>8</v>
+      </c>
+      <c r="G10" s="2">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.6</v>
+      </c>
+      <c r="H10" s="2">
         <v>2</v>
       </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.5</v>
-      </c>
-      <c r="H10">
-        <v>6</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="2">
+        <v>100</v>
+      </c>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11">
-        <v>5</v>
-      </c>
-      <c r="F11">
-        <v>5</v>
-      </c>
-      <c r="G11">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>5</v>
-      </c>
-      <c r="I11">
-        <v>100</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3</v>
+      </c>
+      <c r="G11" s="2">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2</v>
+      </c>
+      <c r="I11" s="2">
+        <v>100</v>
+      </c>
+      <c r="J11" s="2"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12">
-        <v>5</v>
-      </c>
-      <c r="F12">
-        <v>5</v>
-      </c>
-      <c r="G12">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>6</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3</v>
+      </c>
+      <c r="F12" s="2">
+        <v>8</v>
+      </c>
+      <c r="G12" s="2">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2">
+        <v>100</v>
+      </c>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13">
+        <v>37</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="2">
+        <v>3</v>
+      </c>
+      <c r="F13" s="2">
+        <v>3</v>
+      </c>
+      <c r="G13" s="2">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>2</v>
+      </c>
+      <c r="I13" s="2">
+        <v>100</v>
+      </c>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>16</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2</v>
+      </c>
+      <c r="F14" s="2">
+        <v>5</v>
+      </c>
+      <c r="G14" s="2">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>2.5</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>100</v>
+      </c>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>17</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="2">
+        <v>3</v>
+      </c>
+      <c r="F15" s="2">
+        <v>8</v>
+      </c>
+      <c r="G15" s="2">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2">
+        <v>100</v>
+      </c>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>19</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="2">
+        <v>3</v>
+      </c>
+      <c r="F16" s="2">
+        <v>5</v>
+      </c>
+      <c r="G16" s="2">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2">
+        <v>100</v>
+      </c>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>20</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="2">
+        <v>5</v>
+      </c>
+      <c r="F17" s="2">
+        <v>8</v>
+      </c>
+      <c r="G17" s="2">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.6</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2">
+        <v>100</v>
+      </c>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
         <v>21</v>
       </c>
-      <c r="F13">
+      <c r="C18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G13">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>0.61904761904761907</v>
-      </c>
-      <c r="H13">
-        <v>5</v>
-      </c>
-      <c r="I13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
-        <v>11</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14">
-        <v>8</v>
-      </c>
-      <c r="F14">
-        <v>13</v>
-      </c>
-      <c r="G14">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.625</v>
-      </c>
-      <c r="H14">
-        <v>5</v>
-      </c>
-      <c r="I14">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
-        <v>12</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="2">
-        <v>5</v>
-      </c>
-      <c r="F15" s="2">
-        <v>8</v>
-      </c>
-      <c r="G15" s="2">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.6</v>
-      </c>
-      <c r="H15" s="2">
-        <v>2</v>
-      </c>
-      <c r="I15" s="2">
-        <v>100</v>
-      </c>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="2">
-        <v>13</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="2">
-        <v>3</v>
-      </c>
-      <c r="F16" s="2">
-        <v>3</v>
-      </c>
-      <c r="G16" s="2">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1</v>
-      </c>
-      <c r="H16" s="2">
-        <v>2</v>
-      </c>
-      <c r="I16" s="2">
-        <v>100</v>
-      </c>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
-        <v>14</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="2">
-        <v>3</v>
-      </c>
-      <c r="F17" s="2">
-        <v>8</v>
-      </c>
-      <c r="G17" s="2">
+      <c r="D18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="2">
+        <v>3</v>
+      </c>
+      <c r="F18" s="2">
+        <v>8</v>
+      </c>
+      <c r="G18" s="2">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="H17" s="2">
-        <v>1</v>
-      </c>
-      <c r="I17" s="2">
-        <v>100</v>
-      </c>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="2">
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2">
+        <v>100</v>
+      </c>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <v>22</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="2">
-        <v>3</v>
-      </c>
-      <c r="F18" s="2">
-        <v>3</v>
-      </c>
-      <c r="G18" s="2">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1</v>
-      </c>
-      <c r="H18" s="2">
-        <v>2</v>
-      </c>
-      <c r="I18" s="2">
-        <v>100</v>
-      </c>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="2">
-        <v>16</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>9</v>
@@ -1163,43 +1191,43 @@
       </c>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E20" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G20" s="2">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>2.6666666666666665</v>
+        <v>1.5</v>
       </c>
       <c r="H20" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I20" s="2">
         <v>100</v>
       </c>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E21" s="2">
         <v>3</v>
@@ -1212,19 +1240,19 @@
         <v>1.6666666666666667</v>
       </c>
       <c r="H21" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I21" s="2">
         <v>100</v>
       </c>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>9</v>
@@ -1233,54 +1261,54 @@
         <v>3</v>
       </c>
       <c r="F22" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G22" s="2">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.6666666666666667</v>
+        <v>1</v>
       </c>
       <c r="H22" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" s="2">
         <v>100</v>
       </c>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
-        <v>20</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E23" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F23" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G23" s="2">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.6</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="H23" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" s="2">
         <v>100</v>
       </c>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
-        <v>21</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>9</v>
@@ -1289,26 +1317,26 @@
         <v>3</v>
       </c>
       <c r="F24" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G24" s="2">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>2.6666666666666665</v>
+        <v>1</v>
       </c>
       <c r="H24" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I24" s="2">
         <v>100</v>
       </c>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>9</v>
@@ -1317,11 +1345,11 @@
         <v>2</v>
       </c>
       <c r="F25" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G25" s="2">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="H25" s="2">
         <v>1</v>
@@ -1329,83 +1357,83 @@
       <c r="I25" s="2">
         <v>100</v>
       </c>
-      <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="2">
+        <v>3</v>
+      </c>
+      <c r="F26" s="2">
+        <v>8</v>
+      </c>
+      <c r="G26" s="2">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1</v>
+      </c>
+      <c r="I26" s="2">
+        <v>100</v>
+      </c>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="2">
+        <v>34</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="2">
+        <v>5</v>
+      </c>
+      <c r="F27" s="2">
+        <v>8</v>
+      </c>
+      <c r="G27" s="2">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.6</v>
+      </c>
+      <c r="H27" s="2">
         <v>2</v>
       </c>
-      <c r="F26" s="2">
-        <v>3</v>
-      </c>
-      <c r="G26" s="2">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.5</v>
-      </c>
-      <c r="H26" s="2">
-        <v>4</v>
-      </c>
-      <c r="I26" s="2">
-        <v>100</v>
-      </c>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="2">
-        <v>24</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="2">
-        <v>3</v>
-      </c>
-      <c r="F27" s="2">
-        <v>5</v>
-      </c>
-      <c r="G27" s="2">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="H27" s="2">
-        <v>1</v>
-      </c>
       <c r="I27" s="2">
         <v>100</v>
       </c>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E28" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F28" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G28" s="2">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H28" s="2">
         <v>2</v>
@@ -1415,282 +1443,275 @@
       </c>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E29" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F29" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G29" s="2">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>0.66666666666666663</v>
+        <v>1.6</v>
       </c>
       <c r="H29" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I29" s="2">
-        <v>100</v>
-      </c>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
+        <v>38</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="2">
+        <v>5</v>
+      </c>
+      <c r="F30" s="2">
+        <v>5</v>
+      </c>
+      <c r="G30" s="2">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1</v>
+      </c>
+      <c r="H30" s="2">
+        <v>6</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="2">
+        <v>40</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="2">
+        <v>5</v>
+      </c>
+      <c r="F31" s="2">
+        <v>5</v>
+      </c>
+      <c r="G31" s="2">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1</v>
+      </c>
+      <c r="H31" s="2">
+        <v>4</v>
+      </c>
+      <c r="I31" s="2">
+        <v>100</v>
+      </c>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="6">
+        <v>3</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="2">
-        <v>3</v>
-      </c>
-      <c r="F30" s="2">
-        <v>3</v>
-      </c>
-      <c r="G30" s="2">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1</v>
-      </c>
-      <c r="H30" s="2">
-        <v>4</v>
-      </c>
-      <c r="I30" s="2">
-        <v>100</v>
-      </c>
-      <c r="J30" s="3"/>
-    </row>
-    <row r="31" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="2">
+      <c r="D32" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="6">
+        <v>3</v>
+      </c>
+      <c r="F32" s="6">
+        <v>8</v>
+      </c>
+      <c r="G32" s="6">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="H32" s="6">
+        <v>5</v>
+      </c>
+      <c r="I32" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="2">
+        <v>5</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>8</v>
+      </c>
+      <c r="G33">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="H33">
+        <v>5</v>
+      </c>
+      <c r="I33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="2">
+        <v>8</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34">
+        <v>5</v>
+      </c>
+      <c r="F34">
+        <v>5</v>
+      </c>
+      <c r="G34">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>5</v>
+      </c>
+      <c r="I34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="2">
+        <v>10</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35">
+        <v>21</v>
+      </c>
+      <c r="F35">
+        <v>13</v>
+      </c>
+      <c r="G35">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>0.61904761904761907</v>
+      </c>
+      <c r="H35">
+        <v>5</v>
+      </c>
+      <c r="I35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="2">
+        <v>11</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36">
+        <v>8</v>
+      </c>
+      <c r="F36">
+        <v>13</v>
+      </c>
+      <c r="G36">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.625</v>
+      </c>
+      <c r="H36">
+        <v>5</v>
+      </c>
+      <c r="I36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="2">
+        <v>18</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="2">
+        <v>3</v>
+      </c>
+      <c r="F37" s="2">
+        <v>5</v>
+      </c>
+      <c r="G37" s="2">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="H37" s="2">
+        <v>5</v>
+      </c>
+      <c r="I37" s="2">
+        <v>100</v>
+      </c>
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="2">
+        <v>28</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="2">
-        <v>5</v>
-      </c>
-      <c r="F31" s="2">
-        <v>8</v>
-      </c>
-      <c r="G31" s="2">
+      <c r="D38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="2">
+        <v>5</v>
+      </c>
+      <c r="F38" s="2">
+        <v>8</v>
+      </c>
+      <c r="G38" s="2">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
         <v>1.6</v>
       </c>
-      <c r="H31" s="2">
-        <v>3</v>
-      </c>
-      <c r="I31" s="2">
-        <v>100</v>
-      </c>
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="2">
-        <v>29</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="2">
-        <v>5</v>
-      </c>
-      <c r="F32" s="2">
-        <v>8</v>
-      </c>
-      <c r="G32" s="2">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.6</v>
-      </c>
-      <c r="H32" s="2">
-        <v>3</v>
-      </c>
-      <c r="I32" s="2">
-        <v>100</v>
-      </c>
-      <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="2">
-        <v>30</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="2">
-        <v>5</v>
-      </c>
-      <c r="F33" s="2">
-        <v>8</v>
-      </c>
-      <c r="G33" s="2">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.6</v>
-      </c>
-      <c r="H33" s="2">
-        <v>3</v>
-      </c>
-      <c r="I33" s="2">
-        <v>100</v>
-      </c>
-      <c r="J33" s="2"/>
-    </row>
-    <row r="34" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="2">
-        <v>31</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="2">
-        <v>5</v>
-      </c>
-      <c r="F34" s="2">
-        <v>8</v>
-      </c>
-      <c r="G34" s="2">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.6</v>
-      </c>
-      <c r="H34" s="2">
-        <v>3</v>
-      </c>
-      <c r="I34" s="2">
-        <v>100</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="2">
-        <v>32</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="2">
-        <v>2</v>
-      </c>
-      <c r="F35" s="2">
-        <v>8</v>
-      </c>
-      <c r="G35" s="2">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>4</v>
-      </c>
-      <c r="H35" s="2">
-        <v>1</v>
-      </c>
-      <c r="I35" s="2">
-        <v>100</v>
-      </c>
-      <c r="J35" s="2"/>
-    </row>
-    <row r="36" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="2">
-        <v>33</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="2">
-        <v>3</v>
-      </c>
-      <c r="F36" s="2">
-        <v>8</v>
-      </c>
-      <c r="G36" s="2">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="H36" s="2">
-        <v>1</v>
-      </c>
-      <c r="I36" s="2">
-        <v>100</v>
-      </c>
-      <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="2">
-        <v>34</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="2">
-        <v>5</v>
-      </c>
-      <c r="F37" s="2">
-        <v>8</v>
-      </c>
-      <c r="G37" s="2">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.6</v>
-      </c>
-      <c r="H37" s="2">
-        <v>2</v>
-      </c>
-      <c r="I37" s="2">
-        <v>100</v>
-      </c>
-      <c r="J37" s="2"/>
-    </row>
-    <row r="38" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="2">
-        <v>35</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="2">
-        <v>5</v>
-      </c>
-      <c r="F38" s="2">
-        <v>8</v>
-      </c>
-      <c r="G38" s="2">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1.6</v>
-      </c>
       <c r="H38" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I38" s="2">
         <v>100</v>
@@ -1699,13 +1720,13 @@
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="2">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E39" s="2">
         <v>5</v>
@@ -1718,19 +1739,19 @@
         <v>1.6</v>
       </c>
       <c r="H39" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I39" s="2">
-        <v>0</v>
-      </c>
-      <c r="J39" s="3"/>
-    </row>
-    <row r="40" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="2">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>8</v>
@@ -1739,14 +1760,14 @@
         <v>5</v>
       </c>
       <c r="F40" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G40" s="2">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H40" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I40" s="2">
         <v>100</v>
@@ -1755,47 +1776,49 @@
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E41" s="2">
         <v>5</v>
       </c>
       <c r="F41" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G41" s="2">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H41" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I41" s="2">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E42" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F42" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G42" s="2">
         <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
@@ -1805,39 +1828,39 @@
         <v>6</v>
       </c>
       <c r="I42" s="2">
+        <v>100</v>
+      </c>
+      <c r="J42" s="2"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="2">
+        <v>39</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="2">
+        <v>8</v>
+      </c>
+      <c r="F43" s="2">
+        <v>8</v>
+      </c>
+      <c r="G43" s="2">
+        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
+        <v>1</v>
+      </c>
+      <c r="H43" s="2">
+        <v>6</v>
+      </c>
+      <c r="I43" s="2">
         <v>0</v>
       </c>
-      <c r="J42" s="2"/>
-    </row>
-    <row r="43" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="2">
-        <v>40</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" s="2">
-        <v>5</v>
-      </c>
-      <c r="F43" s="2">
-        <v>5</v>
-      </c>
-      <c r="G43" s="2">
-        <f>Table2[[#This Row],[Business Value]]/Table2[[#This Row],[Story Point]]</f>
-        <v>1</v>
-      </c>
-      <c r="H43" s="2">
-        <v>4</v>
-      </c>
-      <c r="I43" s="2">
-        <v>100</v>
-      </c>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="2">
         <v>41</v>
       </c>
@@ -1865,7 +1888,7 @@
       </c>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="2">
         <v>42</v>
       </c>
@@ -1893,7 +1916,7 @@
       </c>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="2">
         <v>43</v>
       </c>
@@ -1921,7 +1944,7 @@
       </c>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="2">
         <v>44</v>
       </c>
@@ -1949,7 +1972,7 @@
       </c>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" s="2">
         <v>45</v>
       </c>
@@ -1977,7 +2000,7 @@
       </c>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" s="2">
         <v>46</v>
       </c>
@@ -2022,4 +2045,46 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="85.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/Trunk/Doc/Product BackLog.xlsx
+++ b/Trunk/Doc/Product BackLog.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Estudo\Bitbucket\fusioness\Trunk\Doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="14775" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="59">
   <si>
     <t>#</t>
   </si>
@@ -202,6 +197,9 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>Não Informado</t>
   </si>
 </sst>
 </file>
@@ -397,7 +395,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B3:J49" totalsRowShown="0">
-  <autoFilter ref="B3:J49"/>
+  <autoFilter ref="B3:J49">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="6"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="B4:J49">
     <sortCondition descending="1" ref="D3:D49"/>
   </sortState>
@@ -673,7 +677,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -683,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J50"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,7 +749,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -772,7 +776,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -799,7 +803,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -853,7 +857,9 @@
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
@@ -881,7 +887,9 @@
       <c r="I8">
         <v>0</v>
       </c>
-      <c r="J8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
@@ -909,9 +917,11 @@
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J9" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>12</v>
       </c>
@@ -939,7 +949,7 @@
       </c>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>13</v>
       </c>
@@ -967,7 +977,7 @@
       </c>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>14</v>
       </c>
@@ -995,7 +1005,7 @@
       </c>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>15</v>
       </c>
@@ -1023,7 +1033,7 @@
       </c>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>16</v>
       </c>
@@ -1051,7 +1061,7 @@
       </c>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>17</v>
       </c>
@@ -1079,7 +1089,7 @@
       </c>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>19</v>
       </c>
@@ -1107,7 +1117,7 @@
       </c>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>20</v>
       </c>
@@ -1135,7 +1145,7 @@
       </c>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>21</v>
       </c>
@@ -1163,7 +1173,7 @@
       </c>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>22</v>
       </c>
@@ -1191,7 +1201,7 @@
       </c>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>23</v>
       </c>
@@ -1219,7 +1229,7 @@
       </c>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>24</v>
       </c>
@@ -1247,7 +1257,7 @@
       </c>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>25</v>
       </c>
@@ -1275,7 +1285,7 @@
       </c>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>26</v>
       </c>
@@ -1303,7 +1313,7 @@
       </c>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <v>27</v>
       </c>
@@ -1331,7 +1341,7 @@
       </c>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <v>32</v>
       </c>
@@ -1359,7 +1369,7 @@
       </c>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <v>33</v>
       </c>
@@ -1387,7 +1397,7 @@
       </c>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <v>34</v>
       </c>
@@ -1415,7 +1425,7 @@
       </c>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <v>35</v>
       </c>
@@ -1469,7 +1479,9 @@
       <c r="I29" s="2">
         <v>0</v>
       </c>
-      <c r="J29" s="3"/>
+      <c r="J29" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
@@ -1497,9 +1509,11 @@
       <c r="I30" s="2">
         <v>0</v>
       </c>
-      <c r="J30" s="3"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J30" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
         <v>40</v>
       </c>
@@ -1527,7 +1541,7 @@
       </c>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" s="6">
         <v>3</v>
       </c>
@@ -1554,7 +1568,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
         <v>5</v>
       </c>
@@ -1581,7 +1595,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
         <v>8</v>
       </c>
@@ -1608,7 +1622,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
         <v>10</v>
       </c>
@@ -1635,7 +1649,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
         <v>11</v>
       </c>
@@ -1662,7 +1676,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
         <v>18</v>
       </c>
@@ -1690,7 +1704,7 @@
       </c>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
         <v>28</v>
       </c>
@@ -1718,7 +1732,7 @@
       </c>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" s="2">
         <v>29</v>
       </c>
@@ -1746,7 +1760,7 @@
       </c>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" s="2">
         <v>30</v>
       </c>
@@ -1774,7 +1788,7 @@
       </c>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
         <v>31</v>
       </c>
@@ -1856,11 +1870,11 @@
         <v>6</v>
       </c>
       <c r="I43" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" s="2">
         <v>41</v>
       </c>
@@ -1888,7 +1902,7 @@
       </c>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45" s="2">
         <v>42</v>
       </c>
@@ -1916,7 +1930,7 @@
       </c>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46" s="2">
         <v>43</v>
       </c>
@@ -1944,7 +1958,7 @@
       </c>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" s="2">
         <v>44</v>
       </c>
@@ -2000,7 +2014,7 @@
       </c>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B49" s="2">
         <v>46</v>
       </c>
@@ -2051,7 +2065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>

--- a/Trunk/Doc/Product BackLog.xlsx
+++ b/Trunk/Doc/Product BackLog.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Douglas\Documents\fusioness\Trunk\Doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="11760"/>
   </bookViews>
@@ -10,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -331,32 +336,32 @@
     </xf>
   </cellXfs>
   <cellStyles count="27">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -399,6 +404,11 @@
     <filterColumn colId="6">
       <filters>
         <filter val="6"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="7">
+      <filters>
+        <filter val="0"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -677,7 +687,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -688,7 +698,7 @@
   <dimension ref="B1:J50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -831,7 +841,7 @@
       </c>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>6</v>
       </c>
@@ -855,13 +865,13 @@
         <v>6</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>7</v>
       </c>
@@ -885,13 +895,13 @@
         <v>6</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>9</v>
       </c>
@@ -915,7 +925,7 @@
         <v>6</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>58</v>
@@ -1818,7 +1828,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B42" s="2">
         <v>37</v>
       </c>
@@ -1846,7 +1856,7 @@
       </c>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43" s="2">
         <v>39</v>
       </c>
@@ -1986,7 +1996,7 @@
       </c>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" s="2">
         <v>45</v>
       </c>
